--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="15560" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="15560" tabRatio="1000" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
     <sheet name="term" sheetId="1" r:id="rId2"/>
     <sheet name="foreign" sheetId="2" r:id="rId3"/>
-    <sheet name="geogName" sheetId="4" r:id="rId4"/>
-    <sheet name="orgName" sheetId="5" r:id="rId5"/>
-    <sheet name="persName" sheetId="6" r:id="rId6"/>
-    <sheet name="region" sheetId="7" r:id="rId7"/>
-    <sheet name="settlement" sheetId="8" r:id="rId8"/>
+    <sheet name="orgName" sheetId="5" r:id="rId4"/>
+    <sheet name="region" sheetId="7" r:id="rId5"/>
+    <sheet name="settlement" sheetId="8" r:id="rId6"/>
+    <sheet name="geogName" sheetId="4" r:id="rId7"/>
+    <sheet name="persName" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="473">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -778,9 +778,6 @@
     <t>Zanzibar (10) [island]</t>
   </si>
   <si>
-    <t>Ã‘anze (1) [river]</t>
-  </si>
-  <si>
     <t>Banian slaves (11)</t>
   </si>
   <si>
@@ -1186,9 +1183,6 @@
     <t>Ambriz (1)</t>
   </si>
   <si>
-    <t>BabiraBira (1)</t>
-  </si>
-  <si>
     <t>Cape (2)</t>
   </si>
   <si>
@@ -1231,9 +1225,6 @@
     <t>Kusi (2)</t>
   </si>
   <si>
-    <t>LiÃ±kanda (1)</t>
-  </si>
-  <si>
     <t>Lunda (1)</t>
   </si>
   <si>
@@ -1261,9 +1252,6 @@
     <t>Uvira (1)</t>
   </si>
   <si>
-    <t>Ã‘aÃ±ga (1)</t>
-  </si>
-  <si>
     <t>Ã±kanda (1)</t>
   </si>
   <si>
@@ -1300,9 +1288,6 @@
     <t>Kasongo (3) [village]</t>
   </si>
   <si>
-    <t>Katomba (1) [village]</t>
-  </si>
-  <si>
     <t>Kenyengere (1) [village]</t>
   </si>
   <si>
@@ -1342,9 +1327,6 @@
     <t>Masuko (1) [village]</t>
   </si>
   <si>
-    <t>MaÃ±kwara (1) [village]</t>
-  </si>
-  <si>
     <t>Mecca (2) [city]</t>
   </si>
   <si>
@@ -1381,9 +1363,6 @@
     <t>UnyinyembeUnyanyembe (1) [town]</t>
   </si>
   <si>
-    <t>Ã‘omba (1) [village]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ñoñgo (2)</t>
   </si>
   <si>
@@ -1412,6 +1391,60 @@
   </si>
   <si>
     <t>xml:id="org0028"</t>
+  </si>
+  <si>
+    <t>xml:id="region0004"</t>
+  </si>
+  <si>
+    <t>xml:id="region0005"</t>
+  </si>
+  <si>
+    <t>xml:id="region0010"</t>
+  </si>
+  <si>
+    <t>xml:id="region0011"</t>
+  </si>
+  <si>
+    <t>xml:id="region0013"</t>
+  </si>
+  <si>
+    <t>xml:id="region00017"</t>
+  </si>
+  <si>
+    <t>ñkanda (1)</t>
+  </si>
+  <si>
+    <t>Ñañga (1)</t>
+  </si>
+  <si>
+    <t>xml:id="region00018"</t>
+  </si>
+  <si>
+    <t>xml:id="sett0002</t>
+  </si>
+  <si>
+    <t>xml:id="sett0016</t>
+  </si>
+  <si>
+    <t>xml:id="sett0005"</t>
+  </si>
+  <si>
+    <t>Mañkwara (1) [village]</t>
+  </si>
+  <si>
+    <t>xml:id="sett0012"</t>
+  </si>
+  <si>
+    <t>xml:id="sett0014"</t>
+  </si>
+  <si>
+    <t>xml:id="sett0015"</t>
+  </si>
+  <si>
+    <t>Ñomba (1) [village]</t>
+  </si>
+  <si>
+    <t>Ñanze (1) [river]</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1506,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1532,7 +1573,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1557,6 +1598,10 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1581,6 +1626,10 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2392,7 +2441,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2588,7 +2637,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -2623,7 +2672,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -2688,7 +2737,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2774,7 +2823,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2942,417 +2991,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A77"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3364,42 +3005,232 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3415,659 +3246,232 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>419</v>
+      </c>
+      <c r="B11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>422</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>437</v>
+      </c>
+      <c r="B30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>443</v>
+      </c>
+      <c r="B36" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="3" t="s">
-        <v>383</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4078,162 +3482,400 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A30"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>384</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>385</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>269</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>389</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>390</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>391</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>392</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>393</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>394</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>395</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>396</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>397</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>398</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>399</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>400</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>401</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>402</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>403</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>404</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>405</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>406</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>408</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>409</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>410</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>411</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>412</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -4248,210 +3890,655 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>413</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>414</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>415</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>416</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>418</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>419</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>420</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>421</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>422</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>423</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>424</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>425</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>426</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>427</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>428</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>430</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>431</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>432</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>433</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>434</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>435</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>436</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>437</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>438</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>439</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>440</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>441</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>442</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>443</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>444</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>445</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>446</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>448</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>449</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>450</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>451</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11320" windowHeight="15560" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12620" windowHeight="15560" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="582">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -1681,9 +1681,6 @@
     <t>Zingifure (3)</t>
   </si>
   <si>
-    <t>&lt;term xml:lang="swh" ref="foreign-word.xml#frgn0022"&gt;</t>
-  </si>
-  <si>
     <t>&lt;term xml:lang="arb" ref="foreign-word.xml#frgn0023"&gt;</t>
   </si>
   <si>
@@ -1769,6 +1766,12 @@
   </si>
   <si>
     <t>&lt;term type="tribe" ref="ethnic-group.xml#ethnic0023"&gt;</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,6 +1829,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1836,7 +1851,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1968,8 +1983,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1977,8 +2072,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="211">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2044,6 +2146,46 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2109,6 +2251,46 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2438,7 +2620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2448,16 +2630,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="4" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2465,7 +2644,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2473,7 +2652,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2481,7 +2660,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -2489,7 +2668,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -2497,9 +2676,17 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2515,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2528,35 +2715,23 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F1" t="s">
-        <v>387</v>
+    <row r="1" spans="1:6" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F2" t="s">
         <v>387</v>
@@ -2564,13 +2739,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
         <v>514</v>
@@ -2581,16 +2756,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F4" t="s">
         <v>387</v>
@@ -2598,16 +2773,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F5" t="s">
         <v>387</v>
@@ -2615,16 +2790,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F6" t="s">
         <v>387</v>
@@ -2632,16 +2807,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F7" t="s">
         <v>387</v>
@@ -2649,16 +2824,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F8" t="s">
         <v>387</v>
@@ -2666,16 +2841,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F9" t="s">
         <v>387</v>
@@ -2683,47 +2858,47 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D10" t="s">
+        <v>520</v>
+      </c>
+      <c r="F10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" t="s">
         <v>521</v>
       </c>
-      <c r="F10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>562</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>560</v>
-      </c>
-      <c r="D12" t="s">
-        <v>522</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F11" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D13" t="s">
         <v>522</v>
@@ -2734,19 +2909,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>126</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
         <v>387</v>
@@ -2754,16 +2926,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="F15" t="s">
         <v>387</v>
@@ -2771,16 +2946,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F16" t="s">
         <v>387</v>
@@ -2788,13 +2963,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D17" t="s">
         <v>525</v>
@@ -2805,16 +2980,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F18" t="s">
         <v>387</v>
@@ -2822,13 +2997,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D19" t="s">
         <v>526</v>
@@ -2839,244 +3014,261 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>559</v>
+      </c>
+      <c r="D20" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D20" t="s">
-        <v>527</v>
-      </c>
-      <c r="F20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>560</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>560</v>
-      </c>
-      <c r="D22" t="s">
-        <v>528</v>
-      </c>
-      <c r="F22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>577</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>560</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F23" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>577</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>560</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>560</v>
-      </c>
-      <c r="D25" t="s">
-        <v>529</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>578</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>560</v>
-      </c>
-      <c r="D26" t="s">
-        <v>529</v>
-      </c>
-      <c r="F26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>560</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>580</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
-        <v>560</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="F28" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>560</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="F29" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>560</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>560</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>559</v>
+      </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>559</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
         <v>291</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -3095,11 +3287,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3111,588 +3301,587 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="D2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>554</v>
-      </c>
-      <c r="B4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D6" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="E6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B5" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" t="s">
-        <v>542</v>
-      </c>
-      <c r="D5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B7" t="s">
-        <v>548</v>
-      </c>
-      <c r="C7" t="s">
-        <v>549</v>
-      </c>
-      <c r="D7" t="s">
-        <v>537</v>
-      </c>
-      <c r="E7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C8" t="s">
-        <v>545</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="E8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="E9" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" t="s">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="2:3">
+      <c r="B47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:3">
+      <c r="B63" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" t="s">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="2:3">
+      <c r="B65" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>295</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="2:3">
+      <c r="B76" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="s">
-        <v>94</v>
-      </c>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="2:3">
+      <c r="B90" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" t="s">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:3">
+      <c r="B92" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" t="s">
-        <v>108</v>
-      </c>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3713,10 +3902,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3728,28 +3917,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D1" t="s">
-        <v>387</v>
+      <c r="A1" s="7" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D2" t="s">
         <v>387</v>
@@ -3757,13 +3937,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D3" t="s">
         <v>387</v>
@@ -3771,13 +3951,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
         <v>387</v>
@@ -3785,15 +3965,29 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3816,7 +4010,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C7" sqref="A6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3899,13 +4093,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>494</v>
       </c>
       <c r="D6" t="s">
@@ -3913,13 +4107,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>495</v>
       </c>
       <c r="D7" t="s">
@@ -4056,7 +4250,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4170,16 +4364,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>482</v>
       </c>
       <c r="E7" t="s">
@@ -4448,7 +4642,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D33" sqref="A33:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5004,16 +5198,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>411</v>
       </c>
       <c r="E33" t="s">
@@ -5021,16 +5215,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>412</v>
       </c>
       <c r="E34" t="s">
@@ -5038,16 +5232,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E35" t="s">
@@ -5055,16 +5249,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>414</v>
       </c>
       <c r="E36" t="s">

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12620" windowHeight="15560" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12620" windowHeight="15560" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="582">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -1851,8 +1851,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="211">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2080,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="211">
+  <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2186,6 +2210,18 @@
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2291,6 +2327,18 @@
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3289,7 +3337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4007,11 +4057,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A6:C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4023,28 +4071,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D1" t="s">
-        <v>387</v>
+      <c r="A1" s="9" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D2" t="s">
         <v>387</v>
@@ -4052,13 +4091,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D3" t="s">
         <v>387</v>
@@ -4066,13 +4105,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D4" t="s">
         <v>387</v>
@@ -4080,27 +4119,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>500</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>493</v>
-      </c>
-      <c r="D5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>494</v>
       </c>
       <c r="D6" t="s">
         <v>387</v>
@@ -4108,125 +4147,139 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="3" t="s">
-        <v>287</v>
+      <c r="D8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3" t="s">
         <v>285</v>
       </c>
     </row>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12620" windowHeight="15560" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
-    <sheet name="term" sheetId="1" r:id="rId2"/>
-    <sheet name="foreign" sheetId="2" r:id="rId3"/>
-    <sheet name="orgName" sheetId="5" r:id="rId4"/>
-    <sheet name="region" sheetId="7" r:id="rId5"/>
-    <sheet name="settlement" sheetId="8" r:id="rId6"/>
-    <sheet name="geogName" sheetId="4" r:id="rId7"/>
-    <sheet name="persName" sheetId="6" r:id="rId8"/>
+    <sheet name="notes" sheetId="10" r:id="rId2"/>
+    <sheet name="term" sheetId="1" r:id="rId3"/>
+    <sheet name="foreign" sheetId="2" r:id="rId4"/>
+    <sheet name="orgName" sheetId="5" r:id="rId5"/>
+    <sheet name="region" sheetId="7" r:id="rId6"/>
+    <sheet name="settlement" sheetId="8" r:id="rId7"/>
+    <sheet name="geogName" sheetId="4" r:id="rId8"/>
+    <sheet name="persName" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="581">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -406,12 +407,6 @@
     <t>virambas (2)</t>
   </si>
   <si>
-    <t>Kolo</t>
-  </si>
-  <si>
-    <t>Wazire</t>
-  </si>
-  <si>
     <t>purple=done</t>
   </si>
   <si>
@@ -1513,9 +1508,6 @@
     <t>region0017</t>
   </si>
   <si>
-    <t>region0018</t>
-  </si>
-  <si>
     <t>&lt;region ref="region.xml#region0004"&gt;</t>
   </si>
   <si>
@@ -1534,9 +1526,6 @@
     <t>&lt;region ref="region.xml#region0017"&gt;</t>
   </si>
   <si>
-    <t>&lt;region ref="region.xml#region0018"&gt;</t>
-  </si>
-  <si>
     <t>&lt;orgName ref="orgName.xml#org0004"&gt;</t>
   </si>
   <si>
@@ -1552,9 +1541,6 @@
     <t>org0027</t>
   </si>
   <si>
-    <t>org0028</t>
-  </si>
-  <si>
     <t>&lt;orgName ref="orgName.xml#org0003"&gt;</t>
   </si>
   <si>
@@ -1564,9 +1550,6 @@
     <t>&lt;orgName ref="orgName.xml#org0027"&gt;</t>
   </si>
   <si>
-    <t>&lt;orgName ref="orgName.xml#org0028"&gt;</t>
-  </si>
-  <si>
     <t>ailm0004</t>
   </si>
   <si>
@@ -1772,6 +1755,21 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Yellow terms can be defined</t>
+  </si>
+  <si>
+    <t>Green terms are committed to define</t>
+  </si>
+  <si>
+    <t>Check UCLA site for add'l defitions &amp; as needed add new refs to XML</t>
+  </si>
+  <si>
+    <t>org0029</t>
+  </si>
+  <si>
+    <t>&lt;orgName ref="orgName.xml#org0029"&gt;</t>
   </si>
 </sst>
 </file>
@@ -1851,8 +1849,164 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="235">
+  <cellStyleXfs count="391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2097,14 +2251,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="235">
+  <cellStyles count="391">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2222,6 +2376,84 @@
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2339,6 +2571,84 @@
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2679,7 +2989,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2750,10 +3060,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2763,499 +3108,493 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:5" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>507</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>508</v>
+      </c>
+      <c r="E3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>558</v>
-      </c>
-      <c r="D4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>564</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
-      </c>
-      <c r="F5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>509</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
-      </c>
-      <c r="F6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>510</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D7" t="s">
-        <v>517</v>
-      </c>
-      <c r="F7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>511</v>
+      </c>
+      <c r="E7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
-      </c>
-      <c r="F8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>512</v>
+      </c>
+      <c r="E8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D9" t="s">
-        <v>519</v>
-      </c>
-      <c r="F9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>513</v>
+      </c>
+      <c r="E9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
-      </c>
-      <c r="F10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>514</v>
+      </c>
+      <c r="E10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D11" t="s">
-        <v>521</v>
-      </c>
-      <c r="F11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>515</v>
+      </c>
+      <c r="E11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D13" t="s">
-        <v>522</v>
-      </c>
-      <c r="F13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>516</v>
+      </c>
+      <c r="E13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D14" t="s">
-        <v>522</v>
-      </c>
-      <c r="F14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>516</v>
+      </c>
+      <c r="E14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D15" t="s">
-        <v>523</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>517</v>
+      </c>
+      <c r="E15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D16" t="s">
-        <v>524</v>
-      </c>
-      <c r="F16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>518</v>
+      </c>
+      <c r="E16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D17" t="s">
-        <v>525</v>
-      </c>
-      <c r="F17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>519</v>
+      </c>
+      <c r="E17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D18" t="s">
-        <v>525</v>
-      </c>
-      <c r="F18" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>519</v>
+      </c>
+      <c r="E18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D19" t="s">
-        <v>526</v>
-      </c>
-      <c r="F19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>520</v>
+      </c>
+      <c r="E19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D20" t="s">
-        <v>526</v>
-      </c>
-      <c r="F20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="B21" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="F21" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="C21" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>522</v>
+      </c>
+      <c r="E22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F23" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>522</v>
+      </c>
+      <c r="E23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>522</v>
+      </c>
+      <c r="E24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>522</v>
+      </c>
+      <c r="E25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>523</v>
+      </c>
+      <c r="E26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="F27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>523</v>
+      </c>
+      <c r="E27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F28" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>524</v>
+      </c>
+      <c r="E28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="F29" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>525</v>
+      </c>
+      <c r="E29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -3263,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -3272,7 +3611,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -3281,7 +3620,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -3290,7 +3629,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -3299,16 +3638,16 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C38" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -3316,7 +3655,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -3333,12 +3672,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3351,147 +3690,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
-        <v>581</v>
+      <c r="A1" s="8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="E2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="E4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="E6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="E7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="E8" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>538</v>
-      </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3659,12 +3998,12 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -3732,7 +4071,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -3809,7 +4148,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -3950,12 +4289,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3967,78 +4306,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>581</v>
+      <c r="A1" s="6" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>508</v>
+      <c r="A6" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>579</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4055,11 +4394,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4071,116 +4412,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
-        <v>581</v>
+      <c r="A1" s="8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>494</v>
+      <c r="A7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>492</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>495</v>
+      <c r="B8" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4190,12 +4525,12 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="3" t="s">
-        <v>265</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4205,7 +4540,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4215,72 +4550,67 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="3" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4298,12 +4628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4315,364 +4645,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E1" t="s">
-        <v>387</v>
+      <c r="A1" s="8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>441</v>
+      <c r="C8" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E8" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>441</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>450</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>451</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>468</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>441</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4690,12 +5033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="A33:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4707,943 +5050,948 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E1" t="s">
-        <v>387</v>
+      <c r="A1" s="8" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
         <v>299</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B27" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C29" t="s">
         <v>299</v>
       </c>
       <c r="D29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E29" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" t="s">
+        <v>407</v>
+      </c>
+      <c r="E32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D32" t="s">
-        <v>410</v>
-      </c>
-      <c r="E32" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>412</v>
+      <c r="D34" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="E34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" t="s">
-        <v>342</v>
+      <c r="A37" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C38" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C47" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C52" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C55" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C56" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C63" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C67" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C69" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C77" t="s">
-        <v>299</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>384</v>
+      </c>
+      <c r="C78" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A128"/>
   <sheetViews>
@@ -5675,642 +6023,642 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="647">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -542,9 +542,6 @@
     <t>Kalenga (11)</t>
   </si>
   <si>
-    <t>Kalomba (1)</t>
-  </si>
-  <si>
     <t>Kama (2)</t>
   </si>
   <si>
@@ -614,9 +611,6 @@
     <t>Matereka (4)</t>
   </si>
   <si>
-    <t>MayaÃ±ga Loembwe (1)</t>
-  </si>
-  <si>
     <t>Merere (2)</t>
   </si>
   <si>
@@ -791,24 +785,15 @@
     <t>YambaYamva (1)</t>
   </si>
   <si>
-    <t>YeÃ±geyenge (1)</t>
-  </si>
-  <si>
     <t>Young (1)</t>
   </si>
   <si>
-    <t>YuÃ±ga (1)</t>
-  </si>
-  <si>
     <t>ZulampelaZurampelaSurampela (1)</t>
   </si>
   <si>
     <t>ZurampelaSurampela (1)</t>
   </si>
   <si>
-    <t>Ã‘oÃ±go (1)</t>
-  </si>
-  <si>
     <t>Abire (1)</t>
   </si>
   <si>
@@ -1770,13 +1755,286 @@
   </si>
   <si>
     <t>&lt;orgName ref="orgName.xml#org0029"&gt;</t>
+  </si>
+  <si>
+    <t>geog0065</t>
+  </si>
+  <si>
+    <t>&lt;geogName type="river" ref="geogName.xml#geog0065"&gt;</t>
+  </si>
+  <si>
+    <t>pers0004</t>
+  </si>
+  <si>
+    <t>pers0006</t>
+  </si>
+  <si>
+    <t>pers0076</t>
+  </si>
+  <si>
+    <t>pers0016</t>
+  </si>
+  <si>
+    <t>pers0002</t>
+  </si>
+  <si>
+    <t>pers0086</t>
+  </si>
+  <si>
+    <t>pers0023</t>
+  </si>
+  <si>
+    <t>pers0025</t>
+  </si>
+  <si>
+    <t>pers0029</t>
+  </si>
+  <si>
+    <t>pers0032</t>
+  </si>
+  <si>
+    <t>pers0078</t>
+  </si>
+  <si>
+    <t>pers0071</t>
+  </si>
+  <si>
+    <t>pers0035</t>
+  </si>
+  <si>
+    <t>pers0040</t>
+  </si>
+  <si>
+    <t>pers0042</t>
+  </si>
+  <si>
+    <t>pers0047</t>
+  </si>
+  <si>
+    <t>pers0049</t>
+  </si>
+  <si>
+    <t>pers0064</t>
+  </si>
+  <si>
+    <t>pers0065</t>
+  </si>
+  <si>
+    <t>pers0062</t>
+  </si>
+  <si>
+    <t>pers0142</t>
+  </si>
+  <si>
+    <t>Mayañga Loembwe (1)</t>
+  </si>
+  <si>
+    <t>pers0098</t>
+  </si>
+  <si>
+    <t>pers0104</t>
+  </si>
+  <si>
+    <t>pers0109</t>
+  </si>
+  <si>
+    <t>pers0110</t>
+  </si>
+  <si>
+    <t>pers0113</t>
+  </si>
+  <si>
+    <t>chief of Nyangwe</t>
+  </si>
+  <si>
+    <t>pers0119</t>
+  </si>
+  <si>
+    <t>pers0125</t>
+  </si>
+  <si>
+    <t>pers0194</t>
+  </si>
+  <si>
+    <t>pers0137</t>
+  </si>
+  <si>
+    <t>pers0001</t>
+  </si>
+  <si>
+    <t>pers0135</t>
+  </si>
+  <si>
+    <t>pers0134</t>
+  </si>
+  <si>
+    <t>pers0147</t>
+  </si>
+  <si>
+    <t>pers0151</t>
+  </si>
+  <si>
+    <t>Arab trader</t>
+  </si>
+  <si>
+    <t>Arab trader, same as 105</t>
+  </si>
+  <si>
+    <t>pers0158</t>
+  </si>
+  <si>
+    <t>pers0166</t>
+  </si>
+  <si>
+    <t>pers0132</t>
+  </si>
+  <si>
+    <t>pers0170</t>
+  </si>
+  <si>
+    <t>pers0179</t>
+  </si>
+  <si>
+    <t>pers0181</t>
+  </si>
+  <si>
+    <t>pers0191</t>
+  </si>
+  <si>
+    <t>Yuñga (1)</t>
+  </si>
+  <si>
+    <t>Yeñgeyenge (1)</t>
+  </si>
+  <si>
+    <t>African chief</t>
+  </si>
+  <si>
+    <t>Ñoñgo (1)</t>
+  </si>
+  <si>
+    <r>
+      <t>Chimburu / Kimburu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An African chief of the Bagenya people. His attempt to form an alliance with Manilla, an African slave, helped incite the Nyangwe massacre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kalenga / Karenga:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An African chief based near Nyangwe, possibly of the Wagenya tribe. Livingstone failed to negotiate with Kalenga for the purchase of a canoe in May and June 1871, and ultimately sent his followers to flog Kalenga although the latter fled.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Manilla:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A slave of Syde bin Habib, a well known Arab trader whom Livingstone had met at Linyati in 1853 and again in 1868-69 in Central Africa. The Arabs of Nyangwe claimed to have started the Nyangwe massacre as retaliation for Manilla's efforts to form an alliance with Chimburu, an African chief residing near Nyangwe.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Matereka:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An Arab trader based in Kasongo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tagamoio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Also known as Mtagamoyo or Mwini Mohara. An Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).</t>
+    </r>
+  </si>
+  <si>
+    <t>African chief near Loeki River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argyll, The Duke of, 1823-1900 (3) - George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts, including Secretary for India 1868-74. </t>
+  </si>
+  <si>
+    <t>During the period of Livingstone’s Zambesi Expedition, João Tavares d'Almeida was Governor-General of Mozambique, while his brother, António Tavares d'Almeida, was Governor of Tete.</t>
+  </si>
+  <si>
+    <t>Sunna was the ruler (Kabaka) of Buganda until his death in 1857.</t>
+  </si>
+  <si>
+    <t>African chief of the Bagenya tribe. Related to Kimburu, whose actions helped incite the Nyangwe massacre.</t>
+  </si>
+  <si>
+    <t>The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.</t>
+  </si>
+  <si>
+    <t>[famous surgeon?]</t>
+  </si>
+  <si>
+    <t>African person</t>
+  </si>
+  <si>
+    <t>African chief, same as 38</t>
+  </si>
+  <si>
+    <t>Member of the Bagenya tribe under Kimburu</t>
+  </si>
+  <si>
+    <t>African headman of the Malobo tribe.</t>
+  </si>
+  <si>
+    <t>African chief of the Ñoñgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murray, John III, 1808-1892 (87) - Son of the founder of John Murray, Publisher. Was Livingstone's publisher and adviser. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oswell, William C., 1818-1893 (77) - Explorer and hunter. Met Livingstone in South Africa in 1845, and travelled with him 1849-51. Remained close friends. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1807,8 +2065,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,6 +2110,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1849,7 +2126,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="391">
+  <cellStyleXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2241,8 +2518,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2257,8 +2593,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="391">
+  <cellStyles count="450">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2454,6 +2796,38 @@
     <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2649,9 +3023,133 @@
     <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6B8B7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8E4BC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
@@ -2989,7 +3487,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3070,17 +3568,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -3110,466 +3608,466 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D10" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D13" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D14" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D15" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D18" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D19" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D20" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E22" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E23" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E24" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E25" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E26" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E27" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3577,7 +4075,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -3586,7 +4084,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3594,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -3602,7 +4100,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -3611,7 +4109,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -3620,7 +4118,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -3629,7 +4127,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -3638,16 +4136,16 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -3655,7 +4153,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -3691,24 +4189,24 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>126</v>
@@ -3716,121 +4214,121 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3998,12 +4496,12 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -4071,7 +4569,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -4148,7 +4646,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -4307,77 +4805,77 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4413,114 +4911,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4530,87 +5028,87 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4633,7 +5131,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4646,376 +5144,376 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5037,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D34" sqref="A34:D34"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5051,947 +5549,953 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E10" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D18" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E20" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D22" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E22" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B23" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D23" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E23" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D24" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E24" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E25" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E27" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B29" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D29" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B30" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D30" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E30" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B31" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D31" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D32" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E32" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D33" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E34" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E35" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>412</v>
+      <c r="C37" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="E37" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C39" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C41" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C42" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C44" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
         <v>352</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B52" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
+      <c r="C52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
         <v>354</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
+      <c r="C54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
         <v>356</v>
       </c>
-      <c r="C50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" t="s">
+      <c r="C55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" t="s">
         <v>357</v>
       </c>
-      <c r="C51" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
+      <c r="C56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
         <v>358</v>
       </c>
-      <c r="C52" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
+      <c r="C57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" t="s">
         <v>359</v>
       </c>
-      <c r="C53" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
+      <c r="C58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
         <v>360</v>
       </c>
-      <c r="C54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" t="s">
+      <c r="C59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
         <v>361</v>
       </c>
-      <c r="C55" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" t="s">
+      <c r="C60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" t="s">
         <v>362</v>
       </c>
-      <c r="C56" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" t="s">
+      <c r="C61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" t="s">
         <v>363</v>
       </c>
-      <c r="C57" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" t="s">
+      <c r="C62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" t="s">
         <v>364</v>
       </c>
-      <c r="C58" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" t="s">
+      <c r="C63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
         <v>365</v>
       </c>
-      <c r="C59" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" t="s">
-        <v>366</v>
-      </c>
-      <c r="C60" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" t="s">
-        <v>367</v>
-      </c>
-      <c r="C61" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" t="s">
-        <v>368</v>
-      </c>
-      <c r="C62" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" t="s">
-        <v>369</v>
-      </c>
-      <c r="C63" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" t="s">
-        <v>370</v>
-      </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C67" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C70" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C74" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C77" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6010,10 +6514,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6021,648 +6525,992 @@
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="B5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="B32" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B47" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B54" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="C59" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+      <c r="C60" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+      <c r="C61" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
+      <c r="C62" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
+      <c r="C63" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
+      <c r="C64" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
+      <c r="C65" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="C66" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="C67" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C80" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B117" s="10"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="12"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" s="12"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B123" s="12"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="12"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" s="12"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="13">
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:C130">
+    <sortCondition ref="B1:B130"/>
+    <sortCondition ref="C1:C130"/>
+    <sortCondition sortBy="cellColor" ref="B1:B130" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="B1:B130" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="B1:B130" dxfId="3"/>
+    <sortCondition ref="A1:A130"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
-    <sheet name="notes" sheetId="10" r:id="rId2"/>
-    <sheet name="term" sheetId="1" r:id="rId3"/>
-    <sheet name="foreign" sheetId="2" r:id="rId4"/>
-    <sheet name="orgName" sheetId="5" r:id="rId5"/>
-    <sheet name="region" sheetId="7" r:id="rId6"/>
-    <sheet name="settlement" sheetId="8" r:id="rId7"/>
-    <sheet name="geogName" sheetId="4" r:id="rId8"/>
-    <sheet name="persName" sheetId="6" r:id="rId9"/>
+    <sheet name="term" sheetId="1" r:id="rId2"/>
+    <sheet name="foreign" sheetId="2" r:id="rId3"/>
+    <sheet name="orgName" sheetId="5" r:id="rId4"/>
+    <sheet name="region" sheetId="7" r:id="rId5"/>
+    <sheet name="settlement" sheetId="8" r:id="rId6"/>
+    <sheet name="geogName" sheetId="4" r:id="rId7"/>
+    <sheet name="persName" sheetId="6" r:id="rId8"/>
+    <sheet name="persName 2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="748">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -1742,15 +1742,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>Yellow terms can be defined</t>
-  </si>
-  <si>
-    <t>Green terms are committed to define</t>
-  </si>
-  <si>
-    <t>Check UCLA site for add'l defitions &amp; as needed add new refs to XML</t>
-  </si>
-  <si>
     <t>org0029</t>
   </si>
   <si>
@@ -1844,9 +1835,6 @@
     <t>pers0113</t>
   </si>
   <si>
-    <t>chief of Nyangwe</t>
-  </si>
-  <si>
     <t>pers0119</t>
   </si>
   <si>
@@ -1874,12 +1862,6 @@
     <t>pers0151</t>
   </si>
   <si>
-    <t>Arab trader</t>
-  </si>
-  <si>
-    <t>Arab trader, same as 105</t>
-  </si>
-  <si>
     <t>pers0158</t>
   </si>
   <si>
@@ -1907,127 +1889,388 @@
     <t>Yeñgeyenge (1)</t>
   </si>
   <si>
-    <t>African chief</t>
-  </si>
-  <si>
     <t>Ñoñgo (1)</t>
   </si>
   <si>
-    <r>
-      <t>Chimburu / Kimburu:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An African chief of the Bagenya people. His attempt to form an alliance with Manilla, an African slave, helped incite the Nyangwe massacre.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kalenga / Karenga:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An African chief based near Nyangwe, possibly of the Wagenya tribe. Livingstone failed to negotiate with Kalenga for the purchase of a canoe in May and June 1871, and ultimately sent his followers to flog Kalenga although the latter fled.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Manilla:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A slave of Syde bin Habib, a well known Arab trader whom Livingstone had met at Linyati in 1853 and again in 1868-69 in Central Africa. The Arabs of Nyangwe claimed to have started the Nyangwe massacre as retaliation for Manilla's efforts to form an alliance with Chimburu, an African chief residing near Nyangwe.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Matereka:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An Arab trader based in Kasongo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tagamoio:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Also known as Mtagamoyo or Mwini Mohara. An Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).</t>
-    </r>
-  </si>
-  <si>
-    <t>African chief near Loeki River</t>
-  </si>
-  <si>
     <t xml:space="preserve">Argyll, The Duke of, 1823-1900 (3) - George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts, including Secretary for India 1868-74. </t>
   </si>
   <si>
     <t>During the period of Livingstone’s Zambesi Expedition, João Tavares d'Almeida was Governor-General of Mozambique, while his brother, António Tavares d'Almeida, was Governor of Tete.</t>
   </si>
   <si>
-    <t>Sunna was the ruler (Kabaka) of Buganda until his death in 1857.</t>
-  </si>
-  <si>
-    <t>African chief of the Bagenya tribe. Related to Kimburu, whose actions helped incite the Nyangwe massacre.</t>
-  </si>
-  <si>
     <t>The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.</t>
   </si>
   <si>
     <t>[famous surgeon?]</t>
   </si>
   <si>
-    <t>African person</t>
-  </si>
-  <si>
-    <t>African chief, same as 38</t>
-  </si>
-  <si>
-    <t>Member of the Bagenya tribe under Kimburu</t>
-  </si>
-  <si>
     <t>African headman of the Malobo tribe.</t>
   </si>
   <si>
-    <t>African chief of the Ñoñgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murray, John III, 1808-1892 (87) - Son of the founder of John Murray, Publisher. Was Livingstone's publisher and adviser. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oswell, William C., 1818-1893 (77) - Explorer and hunter. Met Livingstone in South Africa in 1845, and travelled with him 1849-51. Remained close friends. </t>
+    <t>African chief.</t>
+  </si>
+  <si>
+    <t>African chief of the Bagenya tribe. Related to Kimburu (a.k.a. Chimburu), whose actions helped incite the Nyangwe massacre.</t>
+  </si>
+  <si>
+    <t>African chief of the Ñoñgo.</t>
+  </si>
+  <si>
+    <t>African person.</t>
+  </si>
+  <si>
+    <t>Arab trader.</t>
+  </si>
+  <si>
+    <t>Also Chimburu. African chief of the Bagenya people. His attempt to form an alliance with Manilla, an African slave, helped incite the Nyangwe massacre.</t>
+  </si>
+  <si>
+    <t>Kimburu</t>
+  </si>
+  <si>
+    <t>Kalenga</t>
+  </si>
+  <si>
+    <t>Also Karenga. African chief of an unknown village near Nyangwe, possibly of the Bagenya people. Livingstone failed to negotiate with Kalenga for the purchase of a canoe in May and June 1871, and ultimately sent his followers to flog Kalenga although the latter fled.</t>
+  </si>
+  <si>
+    <t>Manilla</t>
+  </si>
+  <si>
+    <t>Slave of Syde bin Habib, a well known Arab trader whom Livingstone had met at Linyati in 1853 and again in 1868-69 in Central Africa. The Arabs of Nyangwe claimed to have started the Nyangwe massacre as retaliation for Manilla's efforts to form an alliance with Chimburu, an African chief residing near Nyangwe.</t>
+  </si>
+  <si>
+    <t>Arab trader based in Kasongo.</t>
+  </si>
+  <si>
+    <t>Member of the Bagenya tribe under Kimburu.</t>
+  </si>
+  <si>
+    <t>Chipange</t>
+  </si>
+  <si>
+    <t>Kahemba</t>
+  </si>
+  <si>
+    <t>Kama</t>
+  </si>
+  <si>
+    <t>Katenga</t>
+  </si>
+  <si>
+    <t>Mangala</t>
+  </si>
+  <si>
+    <t>Mashenebe</t>
+  </si>
+  <si>
+    <t>Mketo</t>
+  </si>
+  <si>
+    <t>Moenemgunga</t>
+  </si>
+  <si>
+    <t>Moenenyun</t>
+  </si>
+  <si>
+    <t>Moenyempande</t>
+  </si>
+  <si>
+    <t>Muanambongo</t>
+  </si>
+  <si>
+    <t>Surampela</t>
+  </si>
+  <si>
+    <t>Pyanamomba</t>
+  </si>
+  <si>
+    <t>Mpunzo</t>
+  </si>
+  <si>
+    <t>Lomadyo</t>
+  </si>
+  <si>
+    <t>Yuñga</t>
+  </si>
+  <si>
+    <t>Kabobo</t>
+  </si>
+  <si>
+    <t>Makoa</t>
+  </si>
+  <si>
+    <t>Adie</t>
+  </si>
+  <si>
+    <t>Brava</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Syde bin Sultan</t>
+  </si>
+  <si>
+    <t>Mokandira</t>
+  </si>
+  <si>
+    <t>Also Zurampela. African chief from an unknown village near Loeki River.</t>
+  </si>
+  <si>
+    <t>Also Mokandirwa. African chief of Nyangwe.</t>
+  </si>
+  <si>
+    <t>Matereka</t>
+  </si>
+  <si>
+    <t>Kansari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of the founder of John Murray, Publisher. Was Livingstone's publisher and adviser. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explorer and hunter. Met Livingstone in South Africa in 1845, and travelled with him 1849-51. Remained close friends. </t>
+  </si>
+  <si>
+    <t>Sunna</t>
+  </si>
+  <si>
+    <t>Tagamoio</t>
+  </si>
+  <si>
+    <t>1808-1892</t>
+  </si>
+  <si>
+    <t>Murray, John III</t>
+  </si>
+  <si>
+    <t>Oswell, William C.</t>
+  </si>
+  <si>
+    <t>1818-1893</t>
+  </si>
+  <si>
+    <t>Ruler of Buganda (r. 1832-1857).</t>
+  </si>
+  <si>
+    <t>pers0199</t>
+  </si>
+  <si>
+    <t>pers0200</t>
+  </si>
+  <si>
+    <t>pers0201</t>
+  </si>
+  <si>
+    <t>pers0202</t>
+  </si>
+  <si>
+    <t>pers0203</t>
+  </si>
+  <si>
+    <t>pers0204</t>
+  </si>
+  <si>
+    <t>pers0205</t>
+  </si>
+  <si>
+    <t>pers0206</t>
+  </si>
+  <si>
+    <t>pers0207</t>
+  </si>
+  <si>
+    <t>pers0208</t>
+  </si>
+  <si>
+    <t>pers0209</t>
+  </si>
+  <si>
+    <t>pers0210</t>
+  </si>
+  <si>
+    <t>pers0211</t>
+  </si>
+  <si>
+    <t>pers0212</t>
+  </si>
+  <si>
+    <t>pers0213</t>
+  </si>
+  <si>
+    <t>pers0214</t>
+  </si>
+  <si>
+    <t>pers0215</t>
+  </si>
+  <si>
+    <t>pers0216</t>
+  </si>
+  <si>
+    <t>pers0217</t>
+  </si>
+  <si>
+    <t>pers0218</t>
+  </si>
+  <si>
+    <t>pers0219</t>
+  </si>
+  <si>
+    <t>pers0220</t>
+  </si>
+  <si>
+    <t>pers0221</t>
+  </si>
+  <si>
+    <t>pers0222</t>
+  </si>
+  <si>
+    <t>pers0223</t>
+  </si>
+  <si>
+    <t>pers0224</t>
+  </si>
+  <si>
+    <t>pers0225</t>
+  </si>
+  <si>
+    <t>pers0226</t>
+  </si>
+  <si>
+    <t>pers0227</t>
+  </si>
+  <si>
+    <t>pers0228</t>
+  </si>
+  <si>
+    <t>pers0229</t>
+  </si>
+  <si>
+    <t>pers0230</t>
+  </si>
+  <si>
+    <t>pers0231</t>
+  </si>
+  <si>
+    <t>Dambo</t>
+  </si>
+  <si>
+    <t>?-1893</t>
+  </si>
+  <si>
+    <t>Also Mtagamoyo or Mwini Mohara. Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0199"&gt; &lt;persName type='main'&gt;Chipange&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0200"&gt; &lt;persName type='main'&gt;Kahemba&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0201"&gt; &lt;persName type='main'&gt;Kama&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0202"&gt; &lt;persName type='main'&gt;Katenga&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0203"&gt; &lt;persName type='main'&gt;Mangala&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0204"&gt; &lt;persName type='main'&gt;Mashenebe&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0205"&gt; &lt;persName type='main'&gt;Mketo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0206"&gt; &lt;persName type='main'&gt;Moenemgunga&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0207"&gt; &lt;persName type='main'&gt;Moenenyun&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0208"&gt; &lt;persName type='main'&gt;Moenyempande&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0209"&gt; &lt;persName type='main'&gt;Dambo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0210"&gt; &lt;persName type='main'&gt;Muanambongo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0211"&gt; &lt;persName type='main'&gt;Surampela&lt;/persName&gt; &lt;note type='editorial'&gt;Also Zurampela. African chief from an unknown village near Loeki River.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0212"&gt; &lt;persName type='main'&gt;Pyanamomba&lt;/persName&gt; &lt;note type='editorial'&gt;African chief of the Bagenya tribe. Related to Kimburu (a.k.a. Chimburu), whose actions helped incite the Nyangwe massacre.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0213"&gt; &lt;persName type='main'&gt;Mpunzo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief of the Ñoñgo.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0214"&gt; &lt;persName type='main'&gt;Lomadyo&lt;/persName&gt; &lt;note type='editorial'&gt;African headman of the Malobo tribe.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0215"&gt; &lt;persName type='main'&gt;Yuñga&lt;/persName&gt; &lt;note type='editorial'&gt;African headman of the Malobo tribe.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0216"&gt; &lt;persName type='main'&gt;Kabobo&lt;/persName&gt; &lt;note type='editorial'&gt;African person.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0217"&gt; &lt;persName type='main'&gt;Makoa&lt;/persName&gt; &lt;note type='editorial'&gt;African person.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0218"&gt; &lt;persName type='main'&gt;Adie&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0219"&gt; &lt;persName type='main'&gt;Brava&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0220"&gt; &lt;persName type='main'&gt;Salem&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0221"&gt; &lt;persName type='main'&gt;Syde bin Sultan&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0222"&gt; &lt;persName type='main'&gt;Mokandira&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mokandirwa. African chief of Nyangwe.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0223"&gt; &lt;persName type='main'&gt;Kimburu&lt;/persName&gt; &lt;note type='editorial'&gt;Also Chimburu. African chief of the Bagenya people. His attempt to form an alliance with Manilla, an African slave, helped incite the Nyangwe massacre.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0224"&gt; &lt;persName type='main'&gt;Kalenga&lt;/persName&gt; &lt;note type='editorial'&gt;Also Karenga. African chief of an unknown village near Nyangwe, possibly of the Bagenya people. Livingstone failed to negotiate with Kalenga for the purchase of a canoe in May and June 1871, and ultimately sent his followers to flog Kalenga although the latter fled.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0225"&gt; &lt;persName type='main'&gt;Manilla&lt;/persName&gt; &lt;note type='editorial'&gt;Slave of Syde bin Habib, a well known Arab trader whom Livingstone had met at Linyati in 1853 and again in 1868-69 in Central Africa. The Arabs of Nyangwe claimed to have started the Nyangwe massacre as retaliation for Manilla's efforts to form an alliance with Chimburu, an African chief residing near Nyangwe.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0226"&gt; &lt;persName type='main'&gt;Matereka&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader based in Kasongo.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0227"&gt; &lt;persName type='main'&gt;Kansari&lt;/persName&gt; &lt;note type='editorial'&gt;Member of the Bagenya tribe under Kimburu.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0228"&gt; &lt;persName type='main'&gt;Murray, John III&lt;/persName&gt; &lt;note type='editorial'&gt;Son of the founder of John Murray, Publisher. Was Livingstone's publisher and adviser. &lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0229"&gt; &lt;persName type='main'&gt;Oswell, William C.&lt;/persName&gt; &lt;note type='editorial'&gt;Explorer and hunter. Met Livingstone in South Africa in 1845, and travelled with him 1849-51. Remained close friends. &lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0230"&gt; &lt;persName type='main'&gt;Sunna&lt;/persName&gt; &lt;note type='editorial'&gt;Ruler of Buganda (r. 1832-1857).&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0231"&gt; &lt;persName type='main'&gt;Tagamoio&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mtagamoyo or Mwini Mohara. Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;During the period of Livingstone’s Zambesi Expedition, João Tavares d'Almeida was Governor-General of Mozambique, while his brother, António Tavares d'Almeida, was Governor of Tete.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;[famous surgeon?]&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;Argyll, The Duke of, 1823-1900 (3) - George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts, including Secretary for India 1868-74. &lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2125,8 +2368,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="450">
+  <cellStyleXfs count="546">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2577,8 +2872,104 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2593,14 +2984,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="450">
+  <cellStyles count="546">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2828,6 +3258,54 @@
     <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3050,33 +3528,57 @@
     <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B8B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8E4BC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3558,45 +4060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4170,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
@@ -4787,7 +5254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -4866,13 +5333,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D6" t="s">
         <v>380</v>
@@ -4892,7 +5359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5126,7 +5593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
@@ -5531,7 +5998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
@@ -6278,7 +6745,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B52" t="s">
         <v>353</v>
@@ -6287,7 +6754,7 @@
         <v>292</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6512,1002 +6979,2025 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B101" sqref="B59:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="2" max="2" width="32.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="11"/>
+    <col min="4" max="4" width="27.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B8" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G47" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="14" customFormat="1">
+      <c r="B58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H59" s="11" t="str">
+        <f>"&lt;person xml:id="&amp;G59&amp;C59&amp;G59&amp;"&gt; &lt;persName type='main'&gt;"&amp;D59&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F59&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
+        <v>&lt;person xml:id="pers0199"&gt; &lt;persName type='main'&gt;Chipange&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H60" s="11" t="str">
+        <f t="shared" ref="H60:H108" si="0">"&lt;person xml:id="&amp;G60&amp;C60&amp;G60&amp;"&gt; &lt;persName type='main'&gt;"&amp;D60&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F60&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
+        <v>&lt;person xml:id="pers0199"&gt; &lt;persName type='main'&gt;Chipange&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0200"&gt; &lt;persName type='main'&gt;Kahemba&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0201"&gt; &lt;persName type='main'&gt;Kama&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0202"&gt; &lt;persName type='main'&gt;Katenga&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0203"&gt; &lt;persName type='main'&gt;Mangala&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0204"&gt; &lt;persName type='main'&gt;Mashenebe&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0205"&gt; &lt;persName type='main'&gt;Mketo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H67" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0206"&gt; &lt;persName type='main'&gt;Moenemgunga&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H68" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0207"&gt; &lt;persName type='main'&gt;Moenenyun&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H69" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0208"&gt; &lt;persName type='main'&gt;Moenyempande&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H70" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0209"&gt; &lt;persName type='main'&gt;Dambo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H71" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0210"&gt; &lt;persName type='main'&gt;Muanambongo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H72" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0211"&gt; &lt;persName type='main'&gt;Surampela&lt;/persName&gt; &lt;note type='editorial'&gt;Also Zurampela. African chief from an unknown village near Loeki River.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30">
+      <c r="A73" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H73" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0211"&gt; &lt;persName type='main'&gt;Surampela&lt;/persName&gt; &lt;note type='editorial'&gt;Also Zurampela. African chief from an unknown village near Loeki River.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H74" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0211"&gt; &lt;persName type='main'&gt;Surampela&lt;/persName&gt; &lt;note type='editorial'&gt;Also Zurampela. African chief from an unknown village near Loeki River.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30">
+      <c r="A75" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H75" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0211"&gt; &lt;persName type='main'&gt;Surampela&lt;/persName&gt; &lt;note type='editorial'&gt;Also Zurampela. African chief from an unknown village near Loeki River.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45">
+      <c r="A76" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H76" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0212"&gt; &lt;persName type='main'&gt;Pyanamomba&lt;/persName&gt; &lt;note type='editorial'&gt;African chief of the Bagenya tribe. Related to Kimburu (a.k.a. Chimburu), whose actions helped incite the Nyangwe massacre.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="E77" s="22"/>
+      <c r="F77" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H77" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0213"&gt; &lt;persName type='main'&gt;Mpunzo&lt;/persName&gt; &lt;note type='editorial'&gt;African chief of the Ñoñgo.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H78" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0200"&gt; &lt;persName type='main'&gt;Kahemba&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>690</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H79" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0214"&gt; &lt;persName type='main'&gt;Lomadyo&lt;/persName&gt; &lt;note type='editorial'&gt;African headman of the Malobo tribe.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H80" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0215"&gt; &lt;persName type='main'&gt;Yuñga&lt;/persName&gt; &lt;note type='editorial'&gt;African headman of the Malobo tribe.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>692</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H81" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0216"&gt; &lt;persName type='main'&gt;Kabobo&lt;/persName&gt; &lt;note type='editorial'&gt;African person.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H82" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0217"&gt; &lt;persName type='main'&gt;Makoa&lt;/persName&gt; &lt;note type='editorial'&gt;African person.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H83" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0218"&gt; &lt;persName type='main'&gt;Adie&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="E84" s="22"/>
+      <c r="F84" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H84" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0219"&gt; &lt;persName type='main'&gt;Brava&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H85" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0220"&gt; &lt;persName type='main'&gt;Salem&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H86" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0221"&gt; &lt;persName type='main'&gt;Syde bin Sultan&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H87" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0221"&gt; &lt;persName type='main'&gt;Syde bin Sultan&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H88" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0222"&gt; &lt;persName type='main'&gt;Mokandira&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mokandirwa. African chief of Nyangwe.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H89" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0222"&gt; &lt;persName type='main'&gt;Mokandira&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mokandirwa. African chief of Nyangwe.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H90" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0222"&gt; &lt;persName type='main'&gt;Mokandira&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mokandirwa. African chief of Nyangwe.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45">
+      <c r="A91" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H91" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0223"&gt; &lt;persName type='main'&gt;Kimburu&lt;/persName&gt; &lt;note type='editorial'&gt;Also Chimburu. African chief of the Bagenya people. His attempt to form an alliance with Manilla, an African slave, helped incite the Nyangwe massacre.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="45">
+      <c r="A92" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H92" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0223"&gt; &lt;persName type='main'&gt;Kimburu&lt;/persName&gt; &lt;note type='editorial'&gt;Also Chimburu. African chief of the Bagenya people. His attempt to form an alliance with Manilla, an African slave, helped incite the Nyangwe massacre.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="75">
+      <c r="A93" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H93" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0224"&gt; &lt;persName type='main'&gt;Kalenga&lt;/persName&gt; &lt;note type='editorial'&gt;Also Karenga. African chief of an unknown village near Nyangwe, possibly of the Bagenya people. Livingstone failed to negotiate with Kalenga for the purchase of a canoe in May and June 1871, and ultimately sent his followers to flog Kalenga although the latter fled.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="75">
+      <c r="A94" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H94" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0224"&gt; &lt;persName type='main'&gt;Kalenga&lt;/persName&gt; &lt;note type='editorial'&gt;Also Karenga. African chief of an unknown village near Nyangwe, possibly of the Bagenya people. Livingstone failed to negotiate with Kalenga for the purchase of a canoe in May and June 1871, and ultimately sent his followers to flog Kalenga although the latter fled.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="90">
+      <c r="A95" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H95" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0225"&gt; &lt;persName type='main'&gt;Manilla&lt;/persName&gt; &lt;note type='editorial'&gt;Slave of Syde bin Habib, a well known Arab trader whom Livingstone had met at Linyati in 1853 and again in 1868-69 in Central Africa. The Arabs of Nyangwe claimed to have started the Nyangwe massacre as retaliation for Manilla's efforts to form an alliance with Chimburu, an African chief residing near Nyangwe.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="E96" s="22"/>
+      <c r="F96" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H96" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0226"&gt; &lt;persName type='main'&gt;Matereka&lt;/persName&gt; &lt;note type='editorial'&gt;Arab trader based in Kasongo.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H97" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0227"&gt; &lt;persName type='main'&gt;Kansari&lt;/persName&gt; &lt;note type='editorial'&gt;Member of the Bagenya tribe under Kimburu.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30">
+      <c r="A98" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H98" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0228"&gt; &lt;persName type='main'&gt;Murray, John III&lt;/persName&gt; &lt;note type='editorial'&gt;Son of the founder of John Murray, Publisher. Was Livingstone's publisher and adviser. &lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="45">
+      <c r="A99" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H99" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0229"&gt; &lt;persName type='main'&gt;Oswell, William C.&lt;/persName&gt; &lt;note type='editorial'&gt;Explorer and hunter. Met Livingstone in South Africa in 1845, and travelled with him 1849-51. Remained close friends. &lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="E100" s="22"/>
+      <c r="F100" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H100" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0230"&gt; &lt;persName type='main'&gt;Sunna&lt;/persName&gt; &lt;note type='editorial'&gt;Ruler of Buganda (r. 1832-1857).&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="90">
+      <c r="A101" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>710</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H101" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id="pers0231"&gt; &lt;persName type='main'&gt;Tagamoio&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mtagamoyo or Mwini Mohara. Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="10"/>
+      <c r="F104" s="13"/>
+    </row>
+    <row r="105" spans="1:8" ht="60">
+      <c r="A105" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H105" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;During the period of Livingstone’s Zambesi Expedition, João Tavares d'Almeida was Governor-General of Mozambique, while his brother, António Tavares d'Almeida, was Governor of Tete.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H106" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;[famous surgeon?]&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="60">
+      <c r="A107" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H107" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;Argyll, The Duke of, 1823-1900 (3) - George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts, including Secretary for India 1868-74. &lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="60">
+      <c r="A108" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H108" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="10" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="18">
         <v>199</v>
       </c>
-      <c r="B23" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B39" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B40" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B46" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B47" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B48" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B51" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B52" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B53" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B54" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C66" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C69" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C70" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C73" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C74" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C75" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C79" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="C80" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C85" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C87" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C88" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C91" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C102" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="8"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B106" s="8"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107" s="8"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" s="8"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" s="8"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B117" s="10"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B121" s="12"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B122" s="12"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B123" s="12"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B124" s="12"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="12"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B126" s="12"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B127" s="12"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="13">
-        <v>199</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C130">
-    <sortCondition ref="B1:B130"/>
-    <sortCondition ref="C1:C130"/>
-    <sortCondition sortBy="cellColor" ref="B1:B130" dxfId="5"/>
-    <sortCondition sortBy="cellColor" ref="B1:B130" dxfId="4"/>
-    <sortCondition sortBy="cellColor" ref="B1:B130" dxfId="3"/>
-    <sortCondition ref="A1:A130"/>
+  <sortState ref="B1:F128">
+    <sortCondition ref="C1:C128"/>
+    <sortCondition ref="F1:F128"/>
+    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="3"/>
+    <sortCondition ref="B1:B128"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7517,4 +9007,372 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="823">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -2271,6 +2271,231 @@
   </si>
   <si>
     <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0002"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0001"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0004"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0006"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0016"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0023"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0025"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0029"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0032"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0035"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0040"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0042"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0047"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0049"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0062"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0064"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0065"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0071"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0076"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0078"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0086"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0098"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0104"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0109"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0110"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0113"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0119"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0125"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0132"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0134"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0135"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0137"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0142"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0147"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0151"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0158"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0166"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0170"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0179"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0181"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0191"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0194"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0199"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0200"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0201"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0202"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0203"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0204"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0205"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0206"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0207"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0208"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0209"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0210"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0211"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0212"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0213"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0214"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0215"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0216"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0217"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0218"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0219"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0220"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0221"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0222"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0223"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0224"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0225"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0226"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0227"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0228"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0229"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0230"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0231"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2547,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2359,8 +2584,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2383,45 +2614,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="546">
+  <cellStyleXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2968,8 +3162,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3017,20 +3221,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="546">
+  <cellStyles count="556">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3306,6 +3512,11 @@
     <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3576,33 +3787,14 @@
     <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B8B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8E4BC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6983,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B101" sqref="B59:C101"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C57" sqref="B1:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9011,359 +9203,1520 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" s="26" t="str">
+        <f>"&lt;persName ref='people.xml#"&amp;C1&amp;"'&gt;"</f>
+        <v>&lt;persName ref='people.xml#pers0001'&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="26" t="str">
+        <f t="shared" ref="D2:D65" si="0">"&lt;persName ref='people.xml#"&amp;C2&amp;"'&gt;"</f>
+        <v>&lt;persName ref='people.xml#pers0001'&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0002'&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0002'&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0004'&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0006'&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0016'&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0016'&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0023'&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0025'&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0029'&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0032'&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0035'&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0035'&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0040'&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="D16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0042'&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0047'&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0049'&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0062'&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="D20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0064'&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0064'&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0065'&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0065'&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0071'&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0071'&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0071'&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0076'&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0086'&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="D33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0098'&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0104'&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0109'&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="D36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0110'&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="D37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0113'&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="D38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0119'&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0125'&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="D40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0132'&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0134'&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="D42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0135'&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0137'&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0137'&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D45" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0142'&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="D46" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0147'&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="D47" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0151'&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="D48" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0158'&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="D49" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0158'&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="D50" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0158'&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="D51" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0166'&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="D52" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0170'&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="D53" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0179'&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="D54" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0181'&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="D55" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0191'&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="D56" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0194'&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="D57" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0194'&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="27" customFormat="1">
+      <c r="B58" s="30"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="B59" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C59" s="29" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="D59" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0199'&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="B60" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C60" s="29" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="27" t="s">
+      <c r="D60" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0199'&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="B61" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C61" s="29" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="27" t="s">
+      <c r="D61" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0200'&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C62" s="29" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="27" t="s">
+      <c r="D62" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0201'&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C63" s="29" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="27" t="s">
+      <c r="D63" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0202'&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="B64" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C64" s="29" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="27" t="s">
+      <c r="D64" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0203'&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="C65" s="29" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="27" t="s">
+      <c r="D65" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;persName ref='people.xml#pers0204'&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="B66" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C66" s="29" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="27" t="s">
+      <c r="D66" s="26" t="str">
+        <f t="shared" ref="D66:D101" si="1">"&lt;persName ref='people.xml#"&amp;C66&amp;"'&gt;"</f>
+        <v>&lt;persName ref='people.xml#pers0205'&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="B67" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="C67" s="29" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="27" t="s">
+      <c r="D67" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0206'&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="B68" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="C68" s="29" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="27" t="s">
+      <c r="D68" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0207'&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="B69" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="C69" s="29" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="27" t="s">
+      <c r="D69" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0208'&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="B70" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="C70" s="29" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
+      <c r="D70" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0209'&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="B71" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C71" s="29" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="27" t="s">
+      <c r="D71" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0210'&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C72" s="29" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="27" t="s">
+      <c r="D72" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="B73" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="C73" s="29" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="27" t="s">
+      <c r="D73" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="B74" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C74" s="29" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="27" t="s">
+      <c r="D74" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="B75" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="C75" s="29" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="27" t="s">
+      <c r="D75" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="C76" s="29" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="27" t="s">
+      <c r="D76" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0212'&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="B77" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="C77" s="29" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="27" t="s">
+      <c r="D77" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0213'&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="B78" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="C78" s="29" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="27" t="s">
+      <c r="D78" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0200'&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="B79" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="C79" s="29" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="27" t="s">
+      <c r="D79" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0214'&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="B80" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C80" s="29" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="27" t="s">
+      <c r="D80" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0215'&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="B81" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="C81" s="29" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="27" t="s">
+      <c r="D81" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0216'&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="B82" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="C82" s="29" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="27" t="s">
+      <c r="D82" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0217'&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="B83" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="C83" s="29" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="27" t="s">
+      <c r="D83" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0218'&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="26" t="s">
+        <v>810</v>
+      </c>
+      <c r="B84" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="C84" s="29" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="27" t="s">
+      <c r="D84" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0219'&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="B85" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="C85" s="29" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="27" t="s">
+      <c r="D85" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0220'&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="B86" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="C86" s="29" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="27" t="s">
+      <c r="D86" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0221'&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="B87" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="C87" s="29" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="27" t="s">
+      <c r="D87" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0221'&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="C88" s="29" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="27" t="s">
+      <c r="D88" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0222'&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="B89" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="C89" s="29" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="27" t="s">
+      <c r="D89" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0222'&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="B90" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="C90" s="29" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="27" t="s">
+      <c r="D90" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0222'&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="B91" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="C91" s="29" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="27" t="s">
+      <c r="D91" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0223'&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="B92" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="C92" s="29" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="27" t="s">
+      <c r="D92" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0223'&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="B93" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="C93" s="29" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="27" t="s">
+      <c r="D93" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0224'&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="B94" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="C94" s="29" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="27" t="s">
+      <c r="D94" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0224'&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="B95" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="C95" s="29" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="27" t="s">
+      <c r="D95" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0225'&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="B96" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="C96" s="29" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="27" t="s">
+      <c r="D96" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0226'&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="B97" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="C97" s="29" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="27" t="s">
+      <c r="D97" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0227'&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="B98" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="C98" s="29" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="27" t="s">
+      <c r="D98" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0228'&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="B99" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="C99" s="29" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="27" t="s">
+      <c r="D99" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0229'&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="B100" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="C100" s="29" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="27" t="s">
+      <c r="D100" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0230'&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="26" t="s">
+        <v>822</v>
+      </c>
+      <c r="B101" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="C101" s="29" t="s">
         <v>707</v>
+      </c>
+      <c r="D101" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0231'&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="8700" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
@@ -2615,7 +2615,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="556">
+  <cellStyleXfs count="884">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3065,6 +3065,334 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3236,7 +3564,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="556">
+  <cellStyles count="884">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3517,6 +3845,170 @@
     <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3792,6 +4284,170 @@
     <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="882" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -7175,8 +7831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C57" sqref="B1:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8923,6 +9579,7 @@
       <c r="B105" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="C105" s="14"/>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
       <c r="F105" s="12" t="s">
@@ -8943,6 +9600,7 @@
       <c r="B106" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="C106" s="14"/>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
       <c r="F106" s="12" t="s">
@@ -8963,6 +9621,7 @@
       <c r="B107" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="C107" s="14"/>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
       <c r="F107" s="12" t="s">
@@ -8983,6 +9642,7 @@
       <c r="B108" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="C108" s="14"/>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
       <c r="F108" s="12" t="s">
@@ -9000,6 +9660,7 @@
       <c r="B109" s="10" t="s">
         <v>136</v>
       </c>
+      <c r="C109" s="14"/>
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
     </row>
@@ -9007,6 +9668,7 @@
       <c r="B110" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="C110" s="14"/>
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
     </row>
@@ -9014,6 +9676,7 @@
       <c r="B111" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="C111" s="14"/>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
     </row>
@@ -9178,9 +9841,7 @@
       <c r="E131" s="17"/>
     </row>
     <row r="132" spans="2:5">
-      <c r="B132" s="18">
-        <v>199</v>
-      </c>
+      <c r="B132" s="18"/>
     </row>
   </sheetData>
   <sortState ref="B1:F128">
@@ -9205,8 +9866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="8700" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="830">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -503,9 +503,6 @@
     <t>Dugumbe (50)</t>
   </si>
   <si>
-    <t>Duke Argyll (1)</t>
-  </si>
-  <si>
     <t>Ghamees (2)</t>
   </si>
   <si>
@@ -1892,18 +1889,9 @@
     <t>Ñoñgo (1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Argyll, The Duke of, 1823-1900 (3) - George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts, including Secretary for India 1868-74. </t>
-  </si>
-  <si>
-    <t>During the period of Livingstone’s Zambesi Expedition, João Tavares d'Almeida was Governor-General of Mozambique, while his brother, António Tavares d'Almeida, was Governor of Tete.</t>
-  </si>
-  <si>
     <t>The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.</t>
   </si>
   <si>
-    <t>[famous surgeon?]</t>
-  </si>
-  <si>
     <t>African headman of the Malobo tribe.</t>
   </si>
   <si>
@@ -2261,15 +2249,6 @@
     <t>&lt;person xml:id="pers0231"&gt; &lt;persName type='main'&gt;Tagamoio&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mtagamoyo or Mwini Mohara. Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).&lt;/note&gt;&lt;/person&gt;</t>
   </si>
   <si>
-    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;During the period of Livingstone’s Zambesi Expedition, João Tavares d'Almeida was Governor-General of Mozambique, while his brother, António Tavares d'Almeida, was Governor of Tete.&lt;/note&gt;&lt;/person&gt;</t>
-  </si>
-  <si>
-    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;[famous surgeon?]&lt;/note&gt;&lt;/person&gt;</t>
-  </si>
-  <si>
-    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;Argyll, The Duke of, 1823-1900 (3) - George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts, including Secretary for India 1868-74. &lt;/note&gt;&lt;/person&gt;</t>
-  </si>
-  <si>
     <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</t>
   </si>
   <si>
@@ -2496,6 +2475,48 @@
   </si>
   <si>
     <t>&lt;persName ref="people.xml#pers0231"&gt;</t>
+  </si>
+  <si>
+    <t>The brothers João Tavares d'Almeida (Governor-General of Mozambique) and António Tavares d'Almeida (Governor of Tete) who held their respective positions during the time of Livingstone’s Zambesi Expedition (1858-64).</t>
+  </si>
+  <si>
+    <t>&lt;orgName ref="orgName.xml#org0030"&gt;</t>
+  </si>
+  <si>
+    <t>pers0232</t>
+  </si>
+  <si>
+    <t>Celebrated surgeon and anatomist, whose collection of medical specimens became the basis of the eponymous Hunterian Museum.</t>
+  </si>
+  <si>
+    <t>1728-1793</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0232"&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;Celebrated surgeon and anatomist, whose collection of medical specimens became the basis of the eponymous Hunterian Museum.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>Hunter, John</t>
+  </si>
+  <si>
+    <t>&lt;persName ref='people.xml#pers0232'&gt;</t>
+  </si>
+  <si>
+    <t>pers0233</t>
+  </si>
+  <si>
+    <t>1823-1900</t>
+  </si>
+  <si>
+    <t>George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts. The First Gladstone Ministry (1868-74) came into power in December 1868, with Argyll as the Secretary of State for India.</t>
+  </si>
+  <si>
+    <t>Argyll, The Duke of</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0233"&gt;</t>
+  </si>
+  <si>
+    <t>change single to double quotes</t>
   </si>
 </sst>
 </file>
@@ -2615,7 +2636,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="884">
+  <cellStyleXfs count="944">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3065,6 +3086,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3564,7 +3645,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="884">
+  <cellStyles count="944">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4009,6 +4090,36 @@
     <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="943" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4448,33 +4559,39 @@
     <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="880" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="942" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6B8B7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD8E4BC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4837,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4923,466 +5040,466 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5390,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -5399,7 +5516,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5407,7 +5524,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -5415,7 +5532,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -5424,7 +5541,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -5433,7 +5550,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -5442,7 +5559,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -5451,16 +5568,16 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -5468,7 +5585,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -5504,24 +5621,24 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>529</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>126</v>
@@ -5529,121 +5646,121 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>531</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>534</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>538</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5811,12 +5928,12 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -5884,7 +6001,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -5961,7 +6078,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -6104,93 +6221,105 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60">
+      <c r="A7" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -6226,114 +6355,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6343,87 +6472,87 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6459,376 +6588,376 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6864,953 +6993,953 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
         <v>291</v>
       </c>
-      <c r="C2" t="s">
-        <v>292</v>
-      </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
         <v>293</v>
       </c>
-      <c r="C3" t="s">
-        <v>294</v>
-      </c>
       <c r="D3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
         <v>296</v>
       </c>
-      <c r="C5" t="s">
-        <v>297</v>
-      </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" t="s">
         <v>299</v>
       </c>
-      <c r="C7" t="s">
-        <v>300</v>
-      </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" t="s">
         <v>326</v>
       </c>
-      <c r="C33" t="s">
-        <v>327</v>
-      </c>
       <c r="D33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" t="s">
         <v>334</v>
-      </c>
-      <c r="C38" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" t="s">
         <v>341</v>
-      </c>
-      <c r="C44" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" t="s">
         <v>345</v>
-      </c>
-      <c r="C47" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" t="s">
         <v>347</v>
-      </c>
-      <c r="C48" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="B49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" t="s">
         <v>349</v>
-      </c>
-      <c r="C49" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="B56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="B58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="B60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="B61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C62" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C68" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C71" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7829,7 +7958,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
@@ -7849,24 +7978,24 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -7874,21 +8003,21 @@
         <v>139</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -7896,10 +8025,10 @@
         <v>132</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -7907,10 +8036,10 @@
         <v>133</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -7918,21 +8047,21 @@
         <v>138</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -7940,10 +8069,10 @@
         <v>142</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -7951,10 +8080,10 @@
         <v>143</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -7962,10 +8091,10 @@
         <v>149</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -7973,10 +8102,10 @@
         <v>150</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -7984,10 +8113,10 @@
         <v>156</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -7995,109 +8124,109 @@
         <v>157</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -8105,32 +8234,32 @@
         <v>154</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -8138,10 +8267,10 @@
         <v>135</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -8149,10 +8278,10 @@
         <v>151</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -8160,10 +8289,10 @@
         <v>153</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -8171,21 +8300,21 @@
         <v>155</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -8193,313 +8322,313 @@
         <v>140</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="14" customFormat="1">
       <c r="B58" s="19"/>
       <c r="F58" s="20"/>
       <c r="G58" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H59" s="11" t="str">
         <f>"&lt;person xml:id="&amp;G59&amp;C59&amp;G59&amp;"&gt; &lt;persName type='main'&gt;"&amp;D59&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F59&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
@@ -8508,48 +8637,48 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H60" s="11" t="str">
-        <f t="shared" ref="H60:H108" si="0">"&lt;person xml:id="&amp;G60&amp;C60&amp;G60&amp;"&gt; &lt;persName type='main'&gt;"&amp;D60&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F60&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
+        <f t="shared" ref="H60:H105" si="0">"&lt;person xml:id="&amp;G60&amp;C60&amp;G60&amp;"&gt; &lt;persName type='main'&gt;"&amp;D60&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F60&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
         <v>&lt;person xml:id="pers0199"&gt; &lt;persName type='main'&gt;Chipange&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H61" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8558,23 +8687,23 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H62" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8583,23 +8712,23 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H63" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8608,23 +8737,23 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="11" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H64" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8633,23 +8762,23 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H65" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8658,23 +8787,23 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H66" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8683,23 +8812,23 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H67" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8708,23 +8837,23 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="11" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H68" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8733,23 +8862,23 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H69" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8758,23 +8887,23 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H70" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8783,23 +8912,23 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H71" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8808,23 +8937,23 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="23" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H72" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8833,23 +8962,23 @@
     </row>
     <row r="73" spans="1:8" ht="30">
       <c r="A73" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="23" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H73" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8858,23 +8987,23 @@
     </row>
     <row r="74" spans="1:8" ht="30">
       <c r="A74" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="23" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H74" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8883,23 +9012,23 @@
     </row>
     <row r="75" spans="1:8" ht="30">
       <c r="A75" s="11" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="23" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H75" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8908,23 +9037,23 @@
     </row>
     <row r="76" spans="1:8" ht="45">
       <c r="A76" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="23" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H76" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8933,23 +9062,23 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="23" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H77" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8958,23 +9087,23 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H78" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8983,23 +9112,23 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="11" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="23" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H79" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9008,23 +9137,23 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="23" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H80" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9033,23 +9162,23 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="23" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H81" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9058,23 +9187,23 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="11" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="23" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H82" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9083,23 +9212,23 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="11" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H83" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9108,23 +9237,23 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H84" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9133,23 +9262,23 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="11" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H85" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9158,23 +9287,23 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H86" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9183,23 +9312,23 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="11" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H87" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9208,23 +9337,23 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="23" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H88" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9233,23 +9362,23 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E89" s="22"/>
       <c r="F89" s="23" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H89" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9258,23 +9387,23 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="11" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="23" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H90" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9283,23 +9412,23 @@
     </row>
     <row r="91" spans="1:8" ht="45">
       <c r="A91" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="23" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H91" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9308,23 +9437,23 @@
     </row>
     <row r="92" spans="1:8" ht="45">
       <c r="A92" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E92" s="22"/>
       <c r="F92" s="23" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H92" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9333,23 +9462,23 @@
     </row>
     <row r="93" spans="1:8" ht="75">
       <c r="A93" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="24" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H93" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9358,23 +9487,23 @@
     </row>
     <row r="94" spans="1:8" ht="75">
       <c r="A94" s="11" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E94" s="22"/>
       <c r="F94" s="24" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H94" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9383,23 +9512,23 @@
     </row>
     <row r="95" spans="1:8" ht="90">
       <c r="A95" s="11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E95" s="22"/>
       <c r="F95" s="24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H95" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9408,23 +9537,23 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E96" s="22"/>
       <c r="F96" s="24" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H96" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9433,23 +9562,23 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="23" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H97" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9458,25 +9587,25 @@
     </row>
     <row r="98" spans="1:8" ht="30">
       <c r="A98" s="11" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H98" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9485,25 +9614,25 @@
     </row>
     <row r="99" spans="1:8" ht="45">
       <c r="A99" s="11" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H99" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9512,23 +9641,23 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E100" s="22"/>
       <c r="F100" s="23" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H100" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9537,36 +9666,69 @@
     </row>
     <row r="101" spans="1:8" ht="90">
       <c r="A101" s="11" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H101" s="11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;person xml:id="pers0231"&gt; &lt;persName type='main'&gt;Tagamoio&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mtagamoyo or Mwini Mohara. Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).&lt;/note&gt;&lt;/person&gt;</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="B102" s="10"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" s="10"/>
+    <row r="102" spans="1:8" ht="45">
+      <c r="A102" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>818</v>
+      </c>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H102" s="11" t="str">
+        <f>"&lt;person xml:id="&amp;G102&amp;C102&amp;G102&amp;"&gt; &lt;persName type='main'&gt;"&amp;D102&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F102&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
+        <v>&lt;person xml:id="pers0232"&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;Celebrated surgeon and anatomist, whose collection of medical specimens became the basis of the eponymous Hunterian Museum.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="75">
+      <c r="B103" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" s="10"/>
@@ -9574,91 +9736,52 @@
     </row>
     <row r="105" spans="1:8" ht="60">
       <c r="A105" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
       <c r="F105" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H105" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;During the period of Livingstone’s Zambesi Expedition, João Tavares d'Almeida was Governor-General of Mozambique, while his brother, António Tavares d'Almeida, was Governor of Tete.&lt;/note&gt;&lt;/person&gt;</v>
+        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="11" t="s">
-        <v>745</v>
-      </c>
       <c r="B106" s="10" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C106" s="14"/>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
-      <c r="F106" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H106" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;[famous surgeon?]&lt;/note&gt;&lt;/person&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="60">
-      <c r="A107" s="11" t="s">
-        <v>746</v>
-      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="B107" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
-      <c r="F107" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H107" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;Argyll, The Duke of, 1823-1900 (3) - George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts, including Secretary for India 1868-74. &lt;/note&gt;&lt;/person&gt;</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="60">
-      <c r="A108" s="11" t="s">
-        <v>747</v>
-      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
-      <c r="F108" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="H108" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</v>
-      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" s="10" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="21"/>
@@ -9666,7 +9789,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="B110" s="10" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="21"/>
@@ -9674,7 +9797,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="B111" s="10" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="21"/>
@@ -9682,7 +9805,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="B112" s="10" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="21"/>
@@ -9690,31 +9813,31 @@
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
+        <v>137</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
+        <v>171</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
+        <v>181</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="10" t="s">
-        <v>137</v>
+        <v>595</v>
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
@@ -9722,7 +9845,7 @@
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="10" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
@@ -9730,15 +9853,15 @@
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+        <v>619</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="10" t="s">
-        <v>596</v>
+        <v>237</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
@@ -9746,7 +9869,7 @@
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="10" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
@@ -9754,39 +9877,39 @@
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
+        <v>618</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
+        <v>147</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
+        <v>178</v>
+      </c>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="10" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -9794,7 +9917,7 @@
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="10" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -9802,7 +9925,7 @@
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="10" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -9810,46 +9933,22 @@
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="10" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
     </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="18"/>
+    <row r="129" spans="2:2">
+      <c r="B129" s="18"/>
     </row>
   </sheetData>
   <sortState ref="B1:F128">
     <sortCondition ref="C1:C128"/>
     <sortCondition ref="F1:F128"/>
-    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="5"/>
-    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="4"/>
-    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="2"/>
+    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="C1:C128" dxfId="0"/>
     <sortCondition ref="B1:B128"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9864,10 +9963,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9879,13 +9978,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="26" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D1" s="26" t="str">
         <f>"&lt;persName ref='people.xml#"&amp;C1&amp;"'&gt;"</f>
@@ -9894,13 +9993,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="26" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D2" s="26" t="str">
         <f t="shared" ref="D2:D65" si="0">"&lt;persName ref='people.xml#"&amp;C2&amp;"'&gt;"</f>
@@ -9909,13 +10008,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="26" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>139</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D3" s="26" t="str">
         <f t="shared" si="0"/>
@@ -9924,13 +10023,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="26" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D4" s="26" t="str">
         <f t="shared" si="0"/>
@@ -9939,13 +10038,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="26" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -9954,13 +10053,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="26" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -9969,13 +10068,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="26" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -9984,13 +10083,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="26" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -9999,13 +10098,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="26" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10014,13 +10113,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="26" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10029,13 +10128,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="26" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D11" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10044,13 +10143,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="26" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D12" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10059,13 +10158,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="26" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D13" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10074,13 +10173,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="26" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D14" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10089,13 +10188,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="26" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D15" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10104,13 +10203,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="26" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D16" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10119,13 +10218,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="26" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D17" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10134,13 +10233,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="26" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D18" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10149,13 +10248,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="26" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D19" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10164,13 +10263,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="26" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D20" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10179,13 +10278,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="26" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D21" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10194,13 +10293,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="26" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D22" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10209,13 +10308,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="26" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D23" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10224,13 +10323,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="26" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>154</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D24" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10239,13 +10338,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="26" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D25" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10254,13 +10353,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="26" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D26" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10269,13 +10368,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="26" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D27" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10284,13 +10383,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="26" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>151</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D28" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10299,13 +10398,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="26" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>153</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D29" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10314,13 +10413,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="26" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D30" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10329,13 +10428,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="26" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D31" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10344,13 +10443,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="26" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>140</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D32" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10359,13 +10458,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="26" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D33" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10374,13 +10473,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D34" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10389,13 +10488,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D35" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10404,13 +10503,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="26" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D36" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10419,13 +10518,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D37" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10434,13 +10533,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D38" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10449,13 +10548,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="26" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D39" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10464,13 +10563,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="26" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D40" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10479,13 +10578,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="26" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10494,13 +10593,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="26" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D42" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10509,13 +10608,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="26" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D43" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10524,13 +10623,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="26" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D44" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10539,13 +10638,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="26" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D45" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10554,13 +10653,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="26" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D46" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10569,13 +10668,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="26" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D47" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10584,13 +10683,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="26" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D48" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10599,13 +10698,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="26" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D49" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10614,13 +10713,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="26" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D50" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10629,13 +10728,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="26" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D51" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10644,13 +10743,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="26" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D52" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10659,13 +10758,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="26" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D53" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10674,13 +10773,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="26" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D54" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10689,13 +10788,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="26" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D55" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10704,13 +10803,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="26" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D56" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10719,13 +10818,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="26" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D57" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10737,13 +10836,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="26" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D59" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10752,13 +10851,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="26" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>146</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D60" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10767,13 +10866,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="26" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D61" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10782,13 +10881,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="26" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D62" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10797,13 +10896,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="26" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D63" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10812,13 +10911,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="26" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D64" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10827,13 +10926,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="26" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D65" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10842,28 +10941,28 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="26" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D66" s="26" t="str">
-        <f t="shared" ref="D66:D101" si="1">"&lt;persName ref='people.xml#"&amp;C66&amp;"'&gt;"</f>
+        <f t="shared" ref="D66:D102" si="1">"&lt;persName ref='people.xml#"&amp;C66&amp;"'&gt;"</f>
         <v>&lt;persName ref='people.xml#pers0205'&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="26" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D67" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10872,13 +10971,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="26" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D68" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10887,13 +10986,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="26" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D69" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10902,13 +11001,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="26" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D70" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10917,13 +11016,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="26" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D71" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10932,13 +11031,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="26" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D72" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10947,13 +11046,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="26" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D73" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10962,13 +11061,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="26" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D74" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10977,13 +11076,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="26" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D75" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10992,13 +11091,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="26" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D76" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11007,13 +11106,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="26" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D77" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11022,13 +11121,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="26" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D78" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11037,13 +11136,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="26" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D79" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11052,13 +11151,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="26" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D80" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11067,13 +11166,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="26" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D81" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11082,13 +11181,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="26" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D82" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11097,13 +11196,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="26" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D83" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11112,13 +11211,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="26" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D84" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11127,13 +11226,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="26" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D85" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11142,13 +11241,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="26" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D86" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11157,13 +11256,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="26" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D87" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11172,13 +11271,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="26" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D88" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11187,13 +11286,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="26" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D89" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11202,13 +11301,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="26" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D90" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11217,13 +11316,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="26" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>144</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D91" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11232,13 +11331,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="26" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D92" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11247,13 +11346,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="26" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D93" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11262,13 +11361,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="26" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D94" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11277,13 +11376,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="26" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D95" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11292,13 +11391,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="26" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D96" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11307,13 +11406,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="26" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D97" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11322,13 +11421,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="26" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D98" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11337,13 +11436,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="26" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D99" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11352,13 +11451,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="26" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D100" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11367,17 +11466,52 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="26" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D101" s="26" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0231'&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>822</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="D102" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;persName ref='people.xml#pers0232'&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="D103" s="26" t="str">
+        <f t="shared" ref="D103" si="2">"&lt;persName ref='people.xml#"&amp;C103&amp;"'&gt;"</f>
+        <v>&lt;persName ref='people.xml#pers0233'&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="26" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15560" tabRatio="1000" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15620" tabRatio="1000" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="847">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -518,9 +518,6 @@
     <t>Herodotus (1)</t>
   </si>
   <si>
-    <t>Ishmael (1)</t>
-  </si>
-  <si>
     <t>John Bright (1)</t>
   </si>
   <si>
@@ -1889,9 +1886,6 @@
     <t>Ñoñgo (1)</t>
   </si>
   <si>
-    <t>The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.</t>
-  </si>
-  <si>
     <t>African headman of the Malobo tribe.</t>
   </si>
   <si>
@@ -2249,9 +2243,6 @@
     <t>&lt;person xml:id="pers0231"&gt; &lt;persName type='main'&gt;Tagamoio&lt;/persName&gt; &lt;note type='editorial'&gt;Also Mtagamoyo or Mwini Mohara. Arab trader and the chief perpetrator of the Nyangwe massacre. Tagamoio would eventually become one of the leading Arabs at Nyangwe and would only be brought down and killed by Belgian forces in 1893 (Wissman 1890:176-95; Hinde 1895:433).&lt;/note&gt;&lt;/person&gt;</t>
   </si>
   <si>
-    <t>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</t>
-  </si>
-  <si>
     <t>&lt;persName ref="people.xml#pers0002"&gt;</t>
   </si>
   <si>
@@ -2517,6 +2508,66 @@
   </si>
   <si>
     <t>change single to double quotes</t>
+  </si>
+  <si>
+    <t>pers0234</t>
+  </si>
+  <si>
+    <t>Ishmael</t>
+  </si>
+  <si>
+    <t>1830-1895</t>
+  </si>
+  <si>
+    <t>Khedive of Egypt and Sudan (r.1863-79). Oversaw building of Egyptian portion of Suez Canal.</t>
+  </si>
+  <si>
+    <t>Ismai'il Pasha</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0234"&gt;</t>
+  </si>
+  <si>
+    <t>pers0235</t>
+  </si>
+  <si>
+    <t>pers0236</t>
+  </si>
+  <si>
+    <t>pers0237</t>
+  </si>
+  <si>
+    <t>pers0238</t>
+  </si>
+  <si>
+    <t>John Bright</t>
+  </si>
+  <si>
+    <t>John Arrowsmith</t>
+  </si>
+  <si>
+    <t>Louis-Napoléon Bonaparte</t>
+  </si>
+  <si>
+    <t>Harriet Beecher Stowe</t>
+  </si>
+  <si>
+    <t>pers0239</t>
+  </si>
+  <si>
+    <t>1811-1899</t>
+  </si>
+  <si>
+    <t>1790-1873</t>
+  </si>
+  <si>
+    <t>1808-1873</t>
+  </si>
+  <si>
+    <t>1838-1875</t>
+  </si>
+  <si>
+    <t>1811-1896</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2687,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="944">
+  <cellStyleXfs count="976">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3581,8 +3632,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3644,8 +3727,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="944">
+  <cellStyles count="976">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4120,6 +4209,22 @@
     <cellStyle name="Followed Hyperlink" xfId="939" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="941" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="975" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4589,6 +4694,22 @@
     <cellStyle name="Hyperlink" xfId="938" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="940" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="974" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -4954,7 +5075,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5040,466 +5161,466 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5507,7 +5628,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -5516,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5524,7 +5645,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -5532,7 +5653,7 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -5541,7 +5662,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -5550,7 +5671,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -5559,7 +5680,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -5568,16 +5689,16 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -5585,7 +5706,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -5621,24 +5742,24 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>528</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>126</v>
@@ -5646,121 +5767,121 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5928,12 +6049,12 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -6001,7 +6122,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -6078,7 +6199,7 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -6238,88 +6359,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
       <c r="A7" s="7" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>159</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -6355,114 +6476,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6472,87 +6593,87 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6588,376 +6709,376 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="D6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6993,953 +7114,953 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" t="s">
         <v>290</v>
       </c>
-      <c r="C2" t="s">
-        <v>291</v>
-      </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" t="s">
         <v>292</v>
       </c>
-      <c r="C3" t="s">
-        <v>293</v>
-      </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" t="s">
         <v>295</v>
       </c>
-      <c r="C5" t="s">
-        <v>296</v>
-      </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" t="s">
         <v>298</v>
       </c>
-      <c r="C7" t="s">
-        <v>299</v>
-      </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" t="s">
         <v>325</v>
       </c>
-      <c r="C33" t="s">
-        <v>326</v>
-      </c>
       <c r="D33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="D34" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" t="s">
         <v>333</v>
-      </c>
-      <c r="C38" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" t="s">
         <v>340</v>
-      </c>
-      <c r="C44" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" t="s">
         <v>344</v>
-      </c>
-      <c r="C47" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" t="s">
         <v>346</v>
-      </c>
-      <c r="C48" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="B49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" t="s">
         <v>348</v>
-      </c>
-      <c r="C49" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="B50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="B53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="B54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="B55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="B56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="B58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="B59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="B60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="B61" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="B63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="B64" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7958,10 +8079,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7978,24 +8099,24 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -8003,21 +8124,21 @@
         <v>139</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -8025,10 +8146,10 @@
         <v>132</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -8036,10 +8157,10 @@
         <v>133</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -8047,21 +8168,21 @@
         <v>138</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -8069,10 +8190,10 @@
         <v>142</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -8080,10 +8201,10 @@
         <v>143</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -8091,10 +8212,10 @@
         <v>149</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -8102,10 +8223,10 @@
         <v>150</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -8113,10 +8234,10 @@
         <v>156</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8124,10 +8245,10 @@
         <v>157</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -8135,10 +8256,10 @@
         <v>158</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -8146,10 +8267,10 @@
         <v>160</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -8157,10 +8278,10 @@
         <v>161</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -8168,65 +8289,65 @@
         <v>162</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -8234,32 +8355,32 @@
         <v>154</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -8267,10 +8388,10 @@
         <v>135</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -8278,10 +8399,10 @@
         <v>151</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -8289,10 +8410,10 @@
         <v>153</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -8300,21 +8421,21 @@
         <v>155</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -8322,313 +8443,313 @@
         <v>140</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="14" customFormat="1">
       <c r="B58" s="19"/>
       <c r="F58" s="20"/>
       <c r="G58" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H59" s="11" t="str">
         <f>"&lt;person xml:id="&amp;G59&amp;C59&amp;G59&amp;"&gt; &lt;persName type='main'&gt;"&amp;D59&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F59&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
@@ -8637,48 +8758,48 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H60" s="11" t="str">
-        <f t="shared" ref="H60:H105" si="0">"&lt;person xml:id="&amp;G60&amp;C60&amp;G60&amp;"&gt; &lt;persName type='main'&gt;"&amp;D60&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F60&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
+        <f t="shared" ref="H60:H109" si="0">"&lt;person xml:id="&amp;G60&amp;C60&amp;G60&amp;"&gt; &lt;persName type='main'&gt;"&amp;D60&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F60&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
         <v>&lt;person xml:id="pers0199"&gt; &lt;persName type='main'&gt;Chipange&lt;/persName&gt; &lt;note type='editorial'&gt;African chief.&lt;/note&gt;&lt;/person&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H61" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8687,23 +8808,23 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H62" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8712,23 +8833,23 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="11" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H63" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8737,23 +8858,23 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H64" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8762,23 +8883,23 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H65" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8787,23 +8908,23 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H66" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8812,23 +8933,23 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H67" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8837,23 +8958,23 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H68" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8862,23 +8983,23 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="11" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H69" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8887,23 +9008,23 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H70" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8912,23 +9033,23 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H71" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8937,23 +9058,23 @@
     </row>
     <row r="72" spans="1:8" ht="30">
       <c r="A72" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H72" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8962,23 +9083,23 @@
     </row>
     <row r="73" spans="1:8" ht="30">
       <c r="A73" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H73" s="11" t="str">
         <f t="shared" si="0"/>
@@ -8987,23 +9108,23 @@
     </row>
     <row r="74" spans="1:8" ht="30">
       <c r="A74" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H74" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9012,23 +9133,23 @@
     </row>
     <row r="75" spans="1:8" ht="30">
       <c r="A75" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H75" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9037,23 +9158,23 @@
     </row>
     <row r="76" spans="1:8" ht="45">
       <c r="A76" s="11" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H76" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9062,23 +9183,23 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H77" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9087,23 +9208,23 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H78" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9112,23 +9233,23 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H79" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9137,23 +9258,23 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H80" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9162,23 +9283,23 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H81" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9187,23 +9308,23 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H82" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9212,23 +9333,23 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H83" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9237,23 +9358,23 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H84" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9262,23 +9383,23 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H85" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9287,23 +9408,23 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H86" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9312,23 +9433,23 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H87" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9337,23 +9458,23 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H88" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9362,23 +9483,23 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E89" s="22"/>
       <c r="F89" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H89" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9387,23 +9508,23 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H90" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9412,23 +9533,23 @@
     </row>
     <row r="91" spans="1:8" ht="45">
       <c r="A91" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H91" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9437,23 +9558,23 @@
     </row>
     <row r="92" spans="1:8" ht="45">
       <c r="A92" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E92" s="22"/>
       <c r="F92" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H92" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9462,23 +9583,23 @@
     </row>
     <row r="93" spans="1:8" ht="75">
       <c r="A93" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="24" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H93" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9487,23 +9608,23 @@
     </row>
     <row r="94" spans="1:8" ht="75">
       <c r="A94" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E94" s="22"/>
       <c r="F94" s="24" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H94" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9512,23 +9633,23 @@
     </row>
     <row r="95" spans="1:8" ht="90">
       <c r="A95" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E95" s="22"/>
       <c r="F95" s="24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H95" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9537,23 +9658,23 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E96" s="22"/>
       <c r="F96" s="24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H96" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9562,23 +9683,23 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E97" s="22"/>
       <c r="F97" s="23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H97" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9587,25 +9708,25 @@
     </row>
     <row r="98" spans="1:8" ht="30">
       <c r="A98" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H98" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9614,25 +9735,25 @@
     </row>
     <row r="99" spans="1:8" ht="45">
       <c r="A99" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H99" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9641,23 +9762,23 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E100" s="22"/>
       <c r="F100" s="23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H100" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9666,25 +9787,25 @@
     </row>
     <row r="101" spans="1:8" ht="90">
       <c r="A101" s="11" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C101" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="E101" s="22" t="s">
         <v>703</v>
       </c>
-      <c r="D101" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>705</v>
-      </c>
       <c r="F101" s="23" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H101" s="11" t="str">
         <f t="shared" si="0"/>
@@ -9693,23 +9814,23 @@
     </row>
     <row r="102" spans="1:8" ht="45">
       <c r="A102" s="11" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="21" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H102" s="11" t="str">
         <f>"&lt;person xml:id="&amp;G102&amp;C102&amp;G102&amp;"&gt; &lt;persName type='main'&gt;"&amp;D102&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F102&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
@@ -9718,86 +9839,114 @@
     </row>
     <row r="103" spans="1:8" ht="75">
       <c r="B103" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30">
+      <c r="B104" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>824</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>825</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" s="10"/>
-      <c r="F104" s="13"/>
-    </row>
-    <row r="105" spans="1:8" ht="60">
-      <c r="A105" s="11" t="s">
-        <v>740</v>
-      </c>
+      <c r="D104" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="B105" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="H105" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;person xml:id=""&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;The First Gladstone Ministry (1868-74) came into power in December 1868, with John Bright serving as the President of the Board of Trade and the Duke of Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</v>
+        <v>163</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="B106" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
+      <c r="C106" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="21"/>
+        <v>185</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>835</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="B108" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="21"/>
+        <v>248</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>836</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="F108" s="13"/>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" s="14"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21"/>
+        <v>215</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="E109" s="21" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="B110" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" s="14"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
     </row>
     <row r="111" spans="1:8">
       <c r="B111" s="10" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="21"/>
@@ -9805,142 +9954,146 @@
     </row>
     <row r="112" spans="1:8">
       <c r="B112" s="10" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
     </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="10" t="s">
+    <row r="113" spans="2:6" s="21" customFormat="1">
+      <c r="B113" s="31"/>
+      <c r="F113" s="32"/>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
     </row>
-    <row r="115" spans="2:5">
+    <row r="115" spans="2:6">
       <c r="B115" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="2:6">
       <c r="B116" s="10" t="s">
-        <v>595</v>
+        <v>180</v>
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
     </row>
-    <row r="117" spans="2:5">
+    <row r="117" spans="2:6">
       <c r="B117" s="10" t="s">
-        <v>205</v>
+        <v>594</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
     </row>
-    <row r="118" spans="2:5">
+    <row r="118" spans="2:6">
       <c r="B118" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-    </row>
-    <row r="119" spans="2:5">
+        <v>204</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="2:6">
       <c r="B119" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-    </row>
-    <row r="120" spans="2:5">
+        <v>618</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+    </row>
+    <row r="120" spans="2:6">
       <c r="B120" s="10" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
     </row>
-    <row r="121" spans="2:5">
+    <row r="121" spans="2:6">
       <c r="B121" s="10" t="s">
-        <v>618</v>
+        <v>249</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
     </row>
-    <row r="122" spans="2:5">
+    <row r="122" spans="2:6">
       <c r="B122" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="10" t="s">
-        <v>147</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
       <c r="E123" s="17"/>
     </row>
-    <row r="124" spans="2:5">
+    <row r="124" spans="2:6">
       <c r="B124" s="10" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
     </row>
-    <row r="125" spans="2:5">
+    <row r="125" spans="2:6">
       <c r="B125" s="10" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
       <c r="E125" s="17"/>
     </row>
-    <row r="126" spans="2:5">
+    <row r="126" spans="2:6">
       <c r="B126" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
     </row>
-    <row r="127" spans="2:5">
+    <row r="127" spans="2:6">
       <c r="B127" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
       <c r="E127" s="17"/>
     </row>
-    <row r="128" spans="2:5">
+    <row r="128" spans="2:6">
       <c r="B128" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="18"/>
+    <row r="129" spans="2:5">
+      <c r="B129" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="18"/>
     </row>
   </sheetData>
   <sortState ref="B1:F128">
@@ -9966,7 +10119,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9978,13 +10131,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="26" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D1" s="26" t="str">
         <f>"&lt;persName ref='people.xml#"&amp;C1&amp;"'&gt;"</f>
@@ -9993,13 +10146,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="26" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D2" s="26" t="str">
         <f t="shared" ref="D2:D65" si="0">"&lt;persName ref='people.xml#"&amp;C2&amp;"'&gt;"</f>
@@ -10008,13 +10161,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="26" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>139</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D3" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10023,13 +10176,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="26" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D4" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10038,13 +10191,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="26" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10053,13 +10206,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="26" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10068,13 +10221,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="26" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10083,13 +10236,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="26" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D8" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10098,13 +10251,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="26" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D9" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10113,13 +10266,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="26" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10128,13 +10281,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="26" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D11" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10143,13 +10296,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="26" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D12" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10158,13 +10311,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="26" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D13" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10173,13 +10326,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="26" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D14" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10188,13 +10341,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="26" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>158</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D15" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10203,13 +10356,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="26" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>160</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D16" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10218,13 +10371,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="26" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D17" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10233,13 +10386,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="26" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>162</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D18" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10248,13 +10401,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="26" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D19" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10263,13 +10416,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="26" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D20" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10278,13 +10431,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="26" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D21" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10293,13 +10446,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="26" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D22" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10308,13 +10461,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="26" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D23" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10323,13 +10476,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="26" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>154</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D24" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10338,13 +10491,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="26" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D25" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10353,13 +10506,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="26" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D26" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10368,13 +10521,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="26" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D27" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10383,13 +10536,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="26" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>151</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D28" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10398,13 +10551,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="26" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>153</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D29" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10413,13 +10566,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="26" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D30" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10428,13 +10581,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="26" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D31" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10443,13 +10596,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="26" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>140</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D32" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10458,13 +10611,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="26" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D33" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10473,13 +10626,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="26" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D34" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10488,13 +10641,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="26" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D35" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10503,13 +10656,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="26" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D36" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10518,13 +10671,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="26" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D37" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10533,13 +10686,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="26" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D38" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10548,13 +10701,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="26" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D39" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10563,13 +10716,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="26" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D40" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10578,13 +10731,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="26" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D41" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10593,13 +10746,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="26" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D42" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10608,13 +10761,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="26" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D43" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10623,13 +10776,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="26" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D44" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10638,13 +10791,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="26" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D45" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10653,13 +10806,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="26" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D46" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10668,13 +10821,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="26" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D47" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10683,13 +10836,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="26" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D48" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10698,13 +10851,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="26" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D49" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10713,13 +10866,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="26" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D50" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10728,13 +10881,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="26" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D51" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10743,13 +10896,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="26" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D52" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10758,13 +10911,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="26" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D53" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10773,13 +10926,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="26" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D54" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10788,13 +10941,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="26" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D55" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10803,13 +10956,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="26" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D56" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10818,13 +10971,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="26" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D57" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10836,13 +10989,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="26" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B59" s="28" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D59" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10851,13 +11004,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="26" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>146</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D60" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10866,13 +11019,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="26" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D61" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10881,13 +11034,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="26" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D62" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10896,13 +11049,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="26" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D63" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10911,13 +11064,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="26" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D64" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10926,13 +11079,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="26" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D65" s="26" t="str">
         <f t="shared" si="0"/>
@@ -10941,13 +11094,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="26" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D66" s="26" t="str">
         <f t="shared" ref="D66:D102" si="1">"&lt;persName ref='people.xml#"&amp;C66&amp;"'&gt;"</f>
@@ -10956,13 +11109,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="26" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D67" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10971,13 +11124,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="26" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D68" s="26" t="str">
         <f t="shared" si="1"/>
@@ -10986,13 +11139,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="26" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D69" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11001,13 +11154,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="26" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D70" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11016,13 +11169,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="26" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D71" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11031,13 +11184,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="26" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D72" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11046,13 +11199,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="26" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D73" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11061,13 +11214,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="26" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D74" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11076,13 +11229,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="26" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D75" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11091,13 +11244,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="26" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D76" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11106,13 +11259,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="26" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D77" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11121,13 +11274,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="26" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D78" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11136,13 +11289,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="26" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D79" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11151,13 +11304,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="26" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D80" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11166,13 +11319,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="26" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D81" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11181,13 +11334,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="26" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D82" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11196,13 +11349,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="26" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B83" s="28" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D83" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11211,13 +11364,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="26" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B84" s="28" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D84" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11226,13 +11379,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="26" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D85" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11241,13 +11394,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D86" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11256,13 +11409,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="26" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D87" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11271,13 +11424,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D88" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11286,13 +11439,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D89" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11301,13 +11454,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="26" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D90" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11316,13 +11469,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="26" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B91" s="28" t="s">
         <v>144</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D91" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11331,13 +11484,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="26" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D92" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11346,13 +11499,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="26" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D93" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11361,13 +11514,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="26" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D94" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11376,13 +11529,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="26" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D95" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11391,13 +11544,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="26" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D96" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11406,13 +11559,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="26" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D97" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11421,13 +11574,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="26" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D98" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11436,13 +11589,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="26" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D99" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11451,13 +11604,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="26" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D100" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11466,13 +11619,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="26" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D101" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11481,13 +11634,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="26" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D102" s="26" t="str">
         <f t="shared" si="1"/>
@@ -11496,22 +11649,33 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="26" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D103" s="26" t="str">
         <f t="shared" ref="D103" si="2">"&lt;persName ref='people.xml#"&amp;C103&amp;"'&gt;"</f>
         <v>&lt;persName ref='people.xml#pers0233'&gt;</v>
       </c>
     </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="26" t="s">
+        <v>832</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>827</v>
+      </c>
+    </row>
     <row r="108" spans="1:4">
       <c r="A108" s="26" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
+++ b/z-support-files/Spectral-finalize/0_lists3/tags-with-IDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15620" tabRatio="1000" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="15620" tabRatio="1000" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="term-unusued" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="876">
   <si>
     <t xml:space="preserve">    Abdomen (1)</t>
   </si>
@@ -2489,9 +2489,6 @@
     <t>Hunter, John</t>
   </si>
   <si>
-    <t>&lt;persName ref='people.xml#pers0232'&gt;</t>
-  </si>
-  <si>
     <t>pers0233</t>
   </si>
   <si>
@@ -2507,9 +2504,6 @@
     <t>&lt;persName ref="people.xml#pers0233"&gt;</t>
   </si>
   <si>
-    <t>change single to double quotes</t>
-  </si>
-  <si>
     <t>pers0234</t>
   </si>
   <si>
@@ -2568,13 +2562,106 @@
   </si>
   <si>
     <t>1811-1896</t>
+  </si>
+  <si>
+    <t>Abolitionist and author best known for Uncle Tom's Cabin (1852).</t>
+  </si>
+  <si>
+    <t>Traveller and novelist. Known in the 1860s for his travels in West Africa.</t>
+  </si>
+  <si>
+    <t>Also Napoleon III. President (r.1848–52) of the French Second Republic and Emperor (1852–70) of the Second French Empire.</t>
+  </si>
+  <si>
+    <t>Cartographer and map publisher. Founding fellow of the Royal Geographical Society in 1830 and member of the Society's council from 1851 to 1868. His interest in exploration and discovery coupled with his skill in converting rough sketch maps of explorers into professionally published maps led to a significant body of cartographical contributions to the Society's publications.</t>
+  </si>
+  <si>
+    <t>Politician. The First Gladstone Ministry (1868-74) came into power in December 1868 with John Bright serving as the President of the Board of Trade.</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0232"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0235"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0236"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0237"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0238"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref="people.xml#pers0239"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0233"&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts. The First Gladstone Ministry (1868-74) came into power in December 1868, with Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0234"&gt; &lt;persName type='main'&gt;Ismai'il Pasha&lt;/persName&gt; &lt;note type='editorial'&gt;Khedive of Egypt and Sudan (r.1863-79). Oversaw building of Egyptian portion of Suez Canal.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0235"&gt; &lt;persName type='main'&gt;John Bright&lt;/persName&gt; &lt;note type='editorial'&gt;Politician. The First Gladstone Ministry (1868-74) came into power in December 1868 with John Bright serving as the President of the Board of Trade.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0236"&gt; &lt;persName type='main'&gt;John Arrowsmith&lt;/persName&gt; &lt;note type='editorial'&gt;Cartographer and map publisher. Founding fellow of the Royal Geographical Society in 1830 and member of the Society's council from 1851 to 1868. His interest in exploration and discovery coupled with his skill in converting rough sketch maps of explorers into professionally published maps led to a significant body of cartographical contributions to the Society's publications.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0237"&gt; &lt;persName type='main'&gt;Louis-Napoléon Bonaparte&lt;/persName&gt; &lt;note type='editorial'&gt;Also Napoleon III. President (r.1848–52) of the French Second Republic and Emperor (1852–70) of the Second French Empire.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0238"&gt; &lt;persName type='main'&gt;Winwoode Reade (1)&lt;/persName&gt; &lt;note type='editorial'&gt;Traveller and novelist. Known in the 1860s for his travels in West Africa.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0239"&gt; &lt;persName type='main'&gt;Harriet Beecher Stowe&lt;/persName&gt; &lt;note type='editorial'&gt;Abolitionist and author best known for Uncle Tom's Cabin (1852).&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>pers0240</t>
+  </si>
+  <si>
+    <t>pers0241</t>
+  </si>
+  <si>
+    <t>Syme, James</t>
+  </si>
+  <si>
+    <t>1799-1870</t>
+  </si>
+  <si>
+    <t>Surgeon. Highly regarded as a practitioner and teacher of surgery. President of the Royal College of Surgeons of Edinburgh 1849-51.</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0199"&gt; &lt;persName type="main"&gt;Chipange&lt;/persName&gt; &lt;note type="editorial"&gt;African chief.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0240"&gt; &lt;persName type="main"&gt;Syme, James&lt;/persName&gt; &lt;note type="editorial"&gt;Surgeon. Highly regarded as a practitioner and teacher of surgery. President of the Royal College of Surgeons of Edinburgh 1849-51.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>De Bono, Andrea</t>
+  </si>
+  <si>
+    <t>1821-1871</t>
+  </si>
+  <si>
+    <t>Maltese explorer. Known for his exploration of the sources of the White Nile.</t>
+  </si>
+  <si>
+    <t>&lt;person xml:id="pers0241"&gt; &lt;persName type="main"&gt;De Bono, Andrea&lt;/persName&gt; &lt;note type="editorial"&gt;Maltese explorer. Known for his exploration of the sources of the White Nile.&lt;/note&gt;&lt;/person&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref='people.xml#pers0240'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;persName ref='people.xml#pers0241'&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2601,14 +2688,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2687,7 +2766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="976">
+  <cellStyleXfs count="1046">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3664,8 +3743,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3687,12 +3836,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3733,8 +3879,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="976">
+  <cellStyles count="1046">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4225,6 +4378,41 @@
     <cellStyle name="Followed Hyperlink" xfId="971" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="973" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1045" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4710,6 +4898,41 @@
     <cellStyle name="Hyperlink" xfId="970" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="972" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1044" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -8081,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D111" sqref="D110:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8724,28 +8947,28 @@
         <v>378</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="14" customFormat="1">
-      <c r="B58" s="19"/>
-      <c r="F58" s="20"/>
+    <row r="58" spans="1:8" s="13" customFormat="1">
+      <c r="B58" s="18"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="11" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="11" t="s">
-        <v>705</v>
+        <v>868</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23" t="s">
+      <c r="E59" s="21"/>
+      <c r="F59" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G59" s="11" t="s">
@@ -8763,14 +8986,14 @@
       <c r="B60" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23" t="s">
+      <c r="E60" s="21"/>
+      <c r="F60" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G60" s="11" t="s">
@@ -8788,14 +9011,14 @@
       <c r="B61" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23" t="s">
+      <c r="E61" s="21"/>
+      <c r="F61" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G61" s="11" t="s">
@@ -8813,14 +9036,14 @@
       <c r="B62" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>671</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23" t="s">
+      <c r="E62" s="21"/>
+      <c r="F62" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G62" s="11" t="s">
@@ -8838,14 +9061,14 @@
       <c r="B63" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23" t="s">
+      <c r="E63" s="21"/>
+      <c r="F63" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G63" s="11" t="s">
@@ -8863,14 +9086,14 @@
       <c r="B64" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23" t="s">
+      <c r="E64" s="21"/>
+      <c r="F64" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G64" s="11" t="s">
@@ -8888,14 +9111,14 @@
       <c r="B65" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>674</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23" t="s">
+      <c r="E65" s="21"/>
+      <c r="F65" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G65" s="11" t="s">
@@ -8913,14 +9136,14 @@
       <c r="B66" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23" t="s">
+      <c r="E66" s="21"/>
+      <c r="F66" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G66" s="11" t="s">
@@ -8938,14 +9161,14 @@
       <c r="B67" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>640</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23" t="s">
+      <c r="E67" s="21"/>
+      <c r="F67" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G67" s="11" t="s">
@@ -8963,14 +9186,14 @@
       <c r="B68" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>677</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23" t="s">
+      <c r="E68" s="21"/>
+      <c r="F68" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G68" s="11" t="s">
@@ -8988,14 +9211,14 @@
       <c r="B69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23" t="s">
+      <c r="E69" s="21"/>
+      <c r="F69" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G69" s="11" t="s">
@@ -9013,14 +9236,14 @@
       <c r="B70" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>679</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23" t="s">
+      <c r="E70" s="21"/>
+      <c r="F70" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G70" s="11" t="s">
@@ -9038,14 +9261,14 @@
       <c r="B71" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>680</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23" t="s">
+      <c r="E71" s="21"/>
+      <c r="F71" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G71" s="11" t="s">
@@ -9063,14 +9286,14 @@
       <c r="B72" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23" t="s">
+      <c r="E72" s="21"/>
+      <c r="F72" s="22" t="s">
         <v>656</v>
       </c>
       <c r="G72" s="11" t="s">
@@ -9088,14 +9311,14 @@
       <c r="B73" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23" t="s">
+      <c r="E73" s="21"/>
+      <c r="F73" s="22" t="s">
         <v>656</v>
       </c>
       <c r="G73" s="11" t="s">
@@ -9113,14 +9336,14 @@
       <c r="B74" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23" t="s">
+      <c r="E74" s="21"/>
+      <c r="F74" s="22" t="s">
         <v>656</v>
       </c>
       <c r="G74" s="11" t="s">
@@ -9138,14 +9361,14 @@
       <c r="B75" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23" t="s">
+      <c r="E75" s="21"/>
+      <c r="F75" s="22" t="s">
         <v>656</v>
       </c>
       <c r="G75" s="11" t="s">
@@ -9163,14 +9386,14 @@
       <c r="B76" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>682</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23" t="s">
+      <c r="E76" s="21"/>
+      <c r="F76" s="22" t="s">
         <v>621</v>
       </c>
       <c r="G76" s="11" t="s">
@@ -9188,14 +9411,14 @@
       <c r="B77" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>683</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="21" t="s">
         <v>646</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23" t="s">
+      <c r="E77" s="21"/>
+      <c r="F77" s="22" t="s">
         <v>622</v>
       </c>
       <c r="G77" s="11" t="s">
@@ -9213,14 +9436,14 @@
       <c r="B78" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23" t="s">
+      <c r="E78" s="21"/>
+      <c r="F78" s="22" t="s">
         <v>620</v>
       </c>
       <c r="G78" s="11" t="s">
@@ -9238,14 +9461,14 @@
       <c r="B79" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23" t="s">
+      <c r="E79" s="21"/>
+      <c r="F79" s="22" t="s">
         <v>619</v>
       </c>
       <c r="G79" s="11" t="s">
@@ -9263,14 +9486,14 @@
       <c r="B80" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23" t="s">
+      <c r="E80" s="21"/>
+      <c r="F80" s="22" t="s">
         <v>619</v>
       </c>
       <c r="G80" s="11" t="s">
@@ -9288,14 +9511,14 @@
       <c r="B81" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23" t="s">
+      <c r="E81" s="21"/>
+      <c r="F81" s="22" t="s">
         <v>623</v>
       </c>
       <c r="G81" s="11" t="s">
@@ -9313,14 +9536,14 @@
       <c r="B82" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23" t="s">
+      <c r="E82" s="21"/>
+      <c r="F82" s="22" t="s">
         <v>623</v>
       </c>
       <c r="G82" s="11" t="s">
@@ -9338,14 +9561,14 @@
       <c r="B83" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23" t="s">
+      <c r="E83" s="21"/>
+      <c r="F83" s="22" t="s">
         <v>624</v>
       </c>
       <c r="G83" s="11" t="s">
@@ -9363,14 +9586,14 @@
       <c r="B84" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>689</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23" t="s">
+      <c r="E84" s="21"/>
+      <c r="F84" s="22" t="s">
         <v>624</v>
       </c>
       <c r="G84" s="11" t="s">
@@ -9388,14 +9611,14 @@
       <c r="B85" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23" t="s">
+      <c r="E85" s="21"/>
+      <c r="F85" s="22" t="s">
         <v>624</v>
       </c>
       <c r="G85" s="11" t="s">
@@ -9413,14 +9636,14 @@
       <c r="B86" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23" t="s">
+      <c r="E86" s="21"/>
+      <c r="F86" s="22" t="s">
         <v>624</v>
       </c>
       <c r="G86" s="11" t="s">
@@ -9438,14 +9661,14 @@
       <c r="B87" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="21" t="s">
         <v>654</v>
       </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23" t="s">
+      <c r="E87" s="21"/>
+      <c r="F87" s="22" t="s">
         <v>624</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -9463,14 +9686,14 @@
       <c r="B88" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23" t="s">
+      <c r="E88" s="21"/>
+      <c r="F88" s="22" t="s">
         <v>657</v>
       </c>
       <c r="G88" s="11" t="s">
@@ -9488,14 +9711,14 @@
       <c r="B89" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D89" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23" t="s">
+      <c r="E89" s="21"/>
+      <c r="F89" s="22" t="s">
         <v>657</v>
       </c>
       <c r="G89" s="11" t="s">
@@ -9513,14 +9736,14 @@
       <c r="B90" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23" t="s">
+      <c r="E90" s="21"/>
+      <c r="F90" s="22" t="s">
         <v>657</v>
       </c>
       <c r="G90" s="11" t="s">
@@ -9538,14 +9761,14 @@
       <c r="B91" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23" t="s">
+      <c r="E91" s="21"/>
+      <c r="F91" s="22" t="s">
         <v>625</v>
       </c>
       <c r="G91" s="11" t="s">
@@ -9563,14 +9786,14 @@
       <c r="B92" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23" t="s">
+      <c r="E92" s="21"/>
+      <c r="F92" s="22" t="s">
         <v>625</v>
       </c>
       <c r="G92" s="11" t="s">
@@ -9588,14 +9811,14 @@
       <c r="B93" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>694</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="D93" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="24" t="s">
+      <c r="E93" s="21"/>
+      <c r="F93" s="23" t="s">
         <v>628</v>
       </c>
       <c r="G93" s="11" t="s">
@@ -9613,14 +9836,14 @@
       <c r="B94" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>694</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="24" t="s">
+      <c r="E94" s="21"/>
+      <c r="F94" s="23" t="s">
         <v>628</v>
       </c>
       <c r="G94" s="11" t="s">
@@ -9638,14 +9861,14 @@
       <c r="B95" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>695</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="24" t="s">
+      <c r="E95" s="21"/>
+      <c r="F95" s="23" t="s">
         <v>630</v>
       </c>
       <c r="G95" s="11" t="s">
@@ -9663,14 +9886,14 @@
       <c r="B96" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="24" t="s">
+      <c r="E96" s="21"/>
+      <c r="F96" s="23" t="s">
         <v>631</v>
       </c>
       <c r="G96" s="11" t="s">
@@ -9688,14 +9911,14 @@
       <c r="B97" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="23" t="s">
+      <c r="E97" s="21"/>
+      <c r="F97" s="22" t="s">
         <v>632</v>
       </c>
       <c r="G97" s="11" t="s">
@@ -9713,16 +9936,16 @@
       <c r="B98" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="E98" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="F98" s="23" t="s">
+      <c r="F98" s="22" t="s">
         <v>660</v>
       </c>
       <c r="G98" s="11" t="s">
@@ -9740,16 +9963,16 @@
       <c r="B99" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="F99" s="23" t="s">
+      <c r="F99" s="22" t="s">
         <v>661</v>
       </c>
       <c r="G99" s="11" t="s">
@@ -9767,14 +9990,14 @@
       <c r="B100" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="21" t="s">
         <v>700</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23" t="s">
+      <c r="E100" s="21"/>
+      <c r="F100" s="22" t="s">
         <v>668</v>
       </c>
       <c r="G100" s="11" t="s">
@@ -9792,16 +10015,16 @@
       <c r="B101" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="21" t="s">
         <v>701</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="21" t="s">
         <v>703</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="22" t="s">
         <v>704</v>
       </c>
       <c r="G101" s="11" t="s">
@@ -9819,11 +10042,11 @@
       <c r="B102" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21" t="s">
+      <c r="D102" s="20"/>
+      <c r="E102" s="20" t="s">
         <v>817</v>
       </c>
       <c r="F102" s="12" t="s">
@@ -9838,262 +10061,384 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="75">
+      <c r="A103" s="11" t="s">
+        <v>856</v>
+      </c>
       <c r="B103" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="C103" s="22" t="s">
+        <v>823</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="E103" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="E103" s="22" t="s">
+      <c r="F103" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="F103" s="12" t="s">
-        <v>823</v>
+      <c r="G103" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H103" s="11" t="str">
+        <f t="shared" ref="H103:H111" si="1">"&lt;person xml:id="&amp;G103&amp;C103&amp;G103&amp;"&gt; &lt;persName type='main'&gt;"&amp;D103&amp;"&lt;/persName&gt; &lt;note type='editorial'&gt;"&amp;F103&amp;"&lt;/note&gt;&lt;/person&gt;"</f>
+        <v>&lt;person xml:id="pers0233"&gt; &lt;persName type='main'&gt;&lt;/persName&gt; &lt;note type='editorial'&gt;George Douglas Campbell. Succeeded to the title in 1847. A Liberal. Held several Government posts. The First Gladstone Ministry (1868-74) came into power in December 1868, with Argyll as the Secretary of State for India.&lt;/note&gt;&lt;/person&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30">
+      <c r="A104" s="11" t="s">
+        <v>857</v>
+      </c>
       <c r="B104" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>829</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>827</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>831</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>829</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="G104" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H104" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0234"&gt; &lt;persName type='main'&gt;Ismai'il Pasha&lt;/persName&gt; &lt;note type='editorial'&gt;Khedive of Egypt and Sudan (r.1863-79). Oversaw building of Egyptian portion of Suez Canal.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="45">
+      <c r="A105" s="11" t="s">
+        <v>858</v>
+      </c>
       <c r="B105" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="22" t="s">
-        <v>833</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>837</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="C105" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H105" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0235"&gt; &lt;persName type='main'&gt;John Bright&lt;/persName&gt; &lt;note type='editorial'&gt;Politician. The First Gladstone Ministry (1868-74) came into power in December 1868 with John Bright serving as the President of the Board of Trade.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="120">
+      <c r="A106" s="11" t="s">
+        <v>859</v>
+      </c>
       <c r="B106" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C106" s="22" t="s">
-        <v>834</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="C106" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>836</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H106" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0236"&gt; &lt;persName type='main'&gt;John Arrowsmith&lt;/persName&gt; &lt;note type='editorial'&gt;Cartographer and map publisher. Founding fellow of the Royal Geographical Society in 1830 and member of the Society's council from 1851 to 1868. His interest in exploration and discovery coupled with his skill in converting rough sketch maps of explorers into professionally published maps led to a significant body of cartographical contributions to the Society's publications.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="45">
+      <c r="A107" s="11" t="s">
+        <v>860</v>
+      </c>
       <c r="B107" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C107" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>839</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="C107" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>837</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H107" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0237"&gt; &lt;persName type='main'&gt;Louis-Napoléon Bonaparte&lt;/persName&gt; &lt;note type='editorial'&gt;Also Napoleon III. President (r.1848–52) of the French Second Republic and Emperor (1852–70) of the Second French Empire.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30">
+      <c r="A108" s="11" t="s">
+        <v>861</v>
+      </c>
       <c r="B108" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C108" s="22" t="s">
-        <v>836</v>
+      <c r="C108" s="21" t="s">
+        <v>834</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>248</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="F108" s="13"/>
-    </row>
-    <row r="109" spans="1:8">
+        <v>843</v>
+      </c>
+      <c r="F108" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H108" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0238"&gt; &lt;persName type='main'&gt;Winwoode Reade (1)&lt;/persName&gt; &lt;note type='editorial'&gt;Traveller and novelist. Known in the 1860s for his travels in West Africa.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30">
+      <c r="A109" s="11" t="s">
+        <v>862</v>
+      </c>
       <c r="B109" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="22" t="s">
-        <v>841</v>
-      </c>
-      <c r="D109" s="21" t="s">
-        <v>840</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="C109" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H109" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0239"&gt; &lt;persName type='main'&gt;Harriet Beecher Stowe&lt;/persName&gt; &lt;note type='editorial'&gt;Abolitionist and author best known for Uncle Tom's Cabin (1852).&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="45">
+      <c r="A110" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>863</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H110" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0240"&gt; &lt;persName type='main'&gt;Syme, James&lt;/persName&gt; &lt;note type='editorial'&gt;Surgeon. Highly regarded as a practitioner and teacher of surgery. President of the Royal College of Surgeons of Edinburgh 1849-51.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30">
+      <c r="A111" s="11" t="s">
+        <v>873</v>
+      </c>
       <c r="B111" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="21"/>
+      <c r="C111" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="E111" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H111" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;person xml:id="pers0241"&gt; &lt;persName type='main'&gt;De Bono, Andrea&lt;/persName&gt; &lt;note type='editorial'&gt;Maltese explorer. Known for his exploration of the sources of the White Nile.&lt;/note&gt;&lt;/person&gt;</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="B112" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="21"/>
-    </row>
-    <row r="113" spans="2:6" s="21" customFormat="1">
-      <c r="B113" s="31"/>
-      <c r="F113" s="32"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+    </row>
+    <row r="113" spans="2:6" s="20" customFormat="1">
+      <c r="B113" s="30"/>
+      <c r="F113" s="31"/>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="18"/>
+      <c r="B130" s="17"/>
     </row>
   </sheetData>
   <sortState ref="B1:F128">
@@ -10116,1566 +10461,1670 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C119" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="33.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="26" t="str">
+      <c r="D1" s="25" t="str">
         <f>"&lt;persName ref='people.xml#"&amp;C1&amp;"'&gt;"</f>
         <v>&lt;persName ref='people.xml#pers0001'&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="D2" s="26" t="str">
+      <c r="D2" s="25" t="str">
         <f t="shared" ref="D2:D65" si="0">"&lt;persName ref='people.xml#"&amp;C2&amp;"'&gt;"</f>
         <v>&lt;persName ref='people.xml#pers0001'&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0002'&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0002'&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>740</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="D5" s="26" t="str">
+      <c r="D5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0004'&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0006'&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0016'&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0016'&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0023'&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0025'&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0029'&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0032'&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0035'&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0035'&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>748</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0040'&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0042'&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0047'&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="D18" s="26" t="str">
+      <c r="D18" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0049'&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="D19" s="26" t="str">
+      <c r="D19" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0062'&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="D20" s="26" t="str">
+      <c r="D20" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0064'&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="D21" s="26" t="str">
+      <c r="D21" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0064'&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="D22" s="26" t="str">
+      <c r="D22" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0065'&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="D23" s="26" t="str">
+      <c r="D23" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0065'&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="D24" s="26" t="str">
+      <c r="D24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0071'&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="D25" s="26" t="str">
+      <c r="D25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0071'&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="D26" s="26" t="str">
+      <c r="D26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0071'&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>756</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="D27" s="26" t="str">
+      <c r="D27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0076'&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="D28" s="26" t="str">
+      <c r="D28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="D29" s="26" t="str">
+      <c r="D29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="D30" s="26" t="str">
+      <c r="D30" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="D31" s="26" t="str">
+      <c r="D31" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0078'&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="D32" s="26" t="str">
+      <c r="D32" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0086'&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="D33" s="26" t="str">
+      <c r="D33" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0098'&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="D34" s="26" t="str">
+      <c r="D34" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0104'&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="D35" s="26" t="str">
+      <c r="D35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0109'&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="D36" s="26" t="str">
+      <c r="D36" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0110'&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="D37" s="26" t="str">
+      <c r="D37" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0113'&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="D38" s="26" t="str">
+      <c r="D38" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0119'&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="D39" s="26" t="str">
+      <c r="D39" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0125'&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="D40" s="26" t="str">
+      <c r="D40" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0132'&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="D41" s="26" t="str">
+      <c r="D41" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0134'&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="D42" s="26" t="str">
+      <c r="D42" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0135'&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="D43" s="26" t="str">
+      <c r="D43" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0137'&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="D44" s="26" t="str">
+      <c r="D44" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0137'&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="D45" s="26" t="str">
+      <c r="D45" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0142'&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>771</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="D46" s="26" t="str">
+      <c r="D46" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0147'&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>772</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="D47" s="26" t="str">
+      <c r="D47" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0151'&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>773</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="D48" s="26" t="str">
+      <c r="D48" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0158'&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>773</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="D49" s="26" t="str">
+      <c r="D49" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0158'&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>773</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="D50" s="26" t="str">
+      <c r="D50" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0158'&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>774</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="D51" s="26" t="str">
+      <c r="D51" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0166'&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>775</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="D52" s="26" t="str">
+      <c r="D52" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0170'&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>776</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="D53" s="26" t="str">
+      <c r="D53" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0179'&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="D54" s="26" t="str">
+      <c r="D54" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0181'&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
         <v>778</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="D55" s="26" t="str">
+      <c r="D55" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0191'&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="D56" s="26" t="str">
+      <c r="D56" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0194'&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>779</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="D57" s="26" t="str">
+      <c r="D57" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0194'&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="27" customFormat="1">
-      <c r="B58" s="30"/>
+    <row r="58" spans="1:4" s="26" customFormat="1">
+      <c r="B58" s="29"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="D59" s="26" t="str">
+      <c r="D59" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0199'&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="25" t="s">
         <v>780</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="28" t="s">
         <v>669</v>
       </c>
-      <c r="D60" s="26" t="str">
+      <c r="D60" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0199'&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="D61" s="26" t="str">
+      <c r="D61" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0200'&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="25" t="s">
         <v>782</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>671</v>
       </c>
-      <c r="D62" s="26" t="str">
+      <c r="D62" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0201'&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="25" t="s">
         <v>783</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="D63" s="26" t="str">
+      <c r="D63" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0202'&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="25" t="s">
         <v>784</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>673</v>
       </c>
-      <c r="D64" s="26" t="str">
+      <c r="D64" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0203'&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="D65" s="26" t="str">
+      <c r="D65" s="25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;persName ref='people.xml#pers0204'&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="25" t="s">
         <v>786</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="28" t="s">
         <v>675</v>
       </c>
-      <c r="D66" s="26" t="str">
+      <c r="D66" s="25" t="str">
         <f t="shared" ref="D66:D102" si="1">"&lt;persName ref='people.xml#"&amp;C66&amp;"'&gt;"</f>
         <v>&lt;persName ref='people.xml#pers0205'&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="25" t="s">
         <v>787</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="D67" s="26" t="str">
+      <c r="D67" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0206'&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="25" t="s">
         <v>788</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="28" t="s">
         <v>677</v>
       </c>
-      <c r="D68" s="26" t="str">
+      <c r="D68" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0207'&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="D69" s="26" t="str">
+      <c r="D69" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0208'&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="28" t="s">
         <v>679</v>
       </c>
-      <c r="D70" s="26" t="str">
+      <c r="D70" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0209'&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="28" t="s">
         <v>680</v>
       </c>
-      <c r="D71" s="26" t="str">
+      <c r="D71" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0210'&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="D72" s="26" t="str">
+      <c r="D72" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="D73" s="26" t="str">
+      <c r="D73" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="D74" s="26" t="str">
+      <c r="D74" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="D75" s="26" t="str">
+      <c r="D75" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0211'&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="25" t="s">
         <v>793</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="28" t="s">
         <v>682</v>
       </c>
-      <c r="D76" s="26" t="str">
+      <c r="D76" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0212'&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="25" t="s">
         <v>794</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="28" t="s">
         <v>683</v>
       </c>
-      <c r="D77" s="26" t="str">
+      <c r="D77" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0213'&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="28" t="s">
         <v>670</v>
       </c>
-      <c r="D78" s="26" t="str">
+      <c r="D78" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0200'&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="25" t="s">
         <v>795</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="28" t="s">
         <v>684</v>
       </c>
-      <c r="D79" s="26" t="str">
+      <c r="D79" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0214'&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="25" t="s">
         <v>796</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>685</v>
       </c>
-      <c r="D80" s="26" t="str">
+      <c r="D80" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0215'&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="25" t="s">
         <v>797</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>686</v>
       </c>
-      <c r="D81" s="26" t="str">
+      <c r="D81" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0216'&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="25" t="s">
         <v>798</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="28" t="s">
         <v>687</v>
       </c>
-      <c r="D82" s="26" t="str">
+      <c r="D82" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0217'&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="26" t="s">
+      <c r="A83" s="25" t="s">
         <v>799</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="28" t="s">
         <v>688</v>
       </c>
-      <c r="D83" s="26" t="str">
+      <c r="D83" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0218'&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="26" t="s">
+      <c r="A84" s="25" t="s">
         <v>800</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="D84" s="26" t="str">
+      <c r="D84" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0219'&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="25" t="s">
         <v>801</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="28" t="s">
         <v>690</v>
       </c>
-      <c r="D85" s="26" t="str">
+      <c r="D85" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0220'&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="D86" s="26" t="str">
+      <c r="D86" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0221'&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="28" t="s">
         <v>691</v>
       </c>
-      <c r="D87" s="26" t="str">
+      <c r="D87" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0221'&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="D88" s="26" t="str">
+      <c r="D88" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0222'&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="D89" s="26" t="str">
+      <c r="D89" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0222'&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B90" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="28" t="s">
         <v>692</v>
       </c>
-      <c r="D90" s="26" t="str">
+      <c r="D90" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0222'&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="25" t="s">
         <v>804</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="D91" s="26" t="str">
+      <c r="D91" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0223'&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="25" t="s">
         <v>804</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="D92" s="26" t="str">
+      <c r="D92" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0223'&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="25" t="s">
         <v>805</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="D93" s="26" t="str">
+      <c r="D93" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0224'&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="25" t="s">
         <v>805</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="D94" s="26" t="str">
+      <c r="D94" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0224'&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="25" t="s">
         <v>806</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="D95" s="26" t="str">
+      <c r="D95" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0225'&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="25" t="s">
         <v>807</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B96" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="28" t="s">
         <v>696</v>
       </c>
-      <c r="D96" s="26" t="str">
+      <c r="D96" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0226'&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="25" t="s">
         <v>808</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="D97" s="26" t="str">
+      <c r="D97" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0227'&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="25" t="s">
         <v>809</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="D98" s="26" t="str">
+      <c r="D98" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0228'&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="25" t="s">
         <v>810</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="D99" s="26" t="str">
+      <c r="D99" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0229'&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="25" t="s">
         <v>811</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="D100" s="26" t="str">
+      <c r="D100" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0230'&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="25" t="s">
         <v>812</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B101" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="D101" s="26" t="str">
+      <c r="D101" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0231'&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="26" t="s">
-        <v>820</v>
-      </c>
-      <c r="B102" s="26" t="s">
+      <c r="A102" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="B102" s="25" t="s">
         <v>819</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="D102" s="26" t="str">
+      <c r="D102" s="25" t="str">
         <f t="shared" si="1"/>
         <v>&lt;persName ref='people.xml#pers0232'&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>823</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="D103" s="25" t="str">
+        <f t="shared" ref="D103:D109" si="2">"&lt;persName ref='people.xml#"&amp;C103&amp;"'&gt;"</f>
+        <v>&lt;persName ref='people.xml#pers0233'&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="C104" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="B103" s="25" t="s">
-        <v>824</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="D103" s="26" t="str">
-        <f t="shared" ref="D103" si="2">"&lt;persName ref='people.xml#"&amp;C103&amp;"'&gt;"</f>
-        <v>&lt;persName ref='people.xml#pers0233'&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="26" t="s">
+      <c r="D104" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;persName ref='people.xml#pers0234'&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>835</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="D105" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;persName ref='people.xml#pers0235'&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="C106" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="B104" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>827</v>
+      <c r="D106" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;persName ref='people.xml#pers0236'&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="D107" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;persName ref='people.xml#pers0237'&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="26" t="s">
-        <v>826</v>
+      <c r="A108" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="D108" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;persName ref='people.xml#pers0238'&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="25" t="s">
+        <v>855</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="D109" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;persName ref='people.xml#pers0239'&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="B110" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>863</v>
+      </c>
+      <c r="D110" s="25" t="str">
+        <f t="shared" ref="D110:D111" si="3">"&lt;persName ref='people.xml#"&amp;C110&amp;"'&gt;"</f>
+        <v>&lt;persName ref='people.xml#pers0240'&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>864</v>
+      </c>
+      <c r="D111" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;persName ref='people.xml#pers0241'&gt;</v>
       </c>
     </row>
   </sheetData>
